--- a/15th.xlsx
+++ b/15th.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="29">
   <si>
     <t>Fitness</t>
   </si>
@@ -32,67 +32,73 @@
     <t>Waiting time</t>
   </si>
   <si>
-    <t>[[79, 74, 95, 149, 70, 116, 148], [56, 42, 23, 34, 96], [22, 76, 35, 8, 161]]</t>
+    <t>[[43, 72, 28, 174, 46, 34], [7, 144, 11, 27, 116, 82, 16], [35, 162, 50, 90, 161, 13, 79]]</t>
   </si>
   <si>
-    <t>[[89, 30, 81, 158, 134, 154], [85, 46, 70, 91, 92, 161], [106, 120, 94, 18, 149]]</t>
+    <t>[[104, 28, 26, 32, 17, 81, 34], [110, 87, 36, 156, 80, 1, 40], [116, 41, 161, 177, 120, 19, 79]]</t>
   </si>
   <si>
-    <t>[[34, 138, 96, 162, 28], [115, 153, 65, 42, 161, 149], [139, 16, 57, 123, 85, 148]]</t>
+    <t>[[92, 148, 40, 123, 55, 15, 34, 79], [87, 120, 110, 45, 77, 103], [41, 18, 126, 101, 152, 136, 1]]</t>
   </si>
   <si>
-    <t>[[72, 12, 70, 125, 138], [110, 98, 148, 161, 136, 74], [100, 46, 89, 85, 133, 28]]</t>
+    <t>[[80, 81, 40, 82, 12, 116, 79], [87, 148, 25, 29, 41, 92, 60], [125, 149, 73, 17, 77, 34, 115]]</t>
   </si>
   <si>
-    <t>[[107, 119, 50, 77, 149], [109, 96, 89, 100, 85, 5], [45, 44, 161, 87, 11, 70]]</t>
+    <t>[[60, 36, 17, 16, 84, 64, 71], [97, 15, 81, 22, 73, 25, 1], [11, 39, 150, 79, 142, 69, 27]]</t>
   </si>
   <si>
-    <t>[[22, 95, 25, 96, 78, 148], [70, 92, 113, 110, 149, 140], [11, 138, 109, 89, 69, 79]]</t>
+    <t>[[45, 16, 73, 17, 79, 52, 29, 34], [87, 36, 144, 15, 125, 25, 148], [120, 110, 10, 18, 38, 32, 40]]</t>
   </si>
   <si>
-    <t>[[172, 110, 161, 70, 149, 138, 96], [148, 57, 85, 92, 113, 87], [63, 76, 89, 90, 45]]</t>
+    <t>[[61, 34, 100, 27, 120, 86, 72], [16, 73, 17, 30, 110, 68, 41], [148, 40, 79, 22, 126, 35, 36, 144]]</t>
   </si>
   <si>
-    <t>[[59, 85, 30, 138, 96, 63], [77, 109, 66, 28, 161, 39], [158, 93, 148, 38, 140, 74, 149]]</t>
+    <t>[[153, 17, 16, 84, 4, 149, 79], [35, 36, 81, 73, 25, 69, 72], [44, 167, 15, 34, 18, 162, 101, 41]]</t>
   </si>
   <si>
-    <t>[[120, 139, 28, 92, 85, 100], [74, 81, 79, 149, 138, 38, 125, 148], [126, 108, 69, 90, 70]]</t>
+    <t>[[91, 167, 15, 17, 16, 73, 25, 79], [120, 149, 1, 70, 77, 38, 44], [132, 27, 57, 148, 34, 18, 40, 36]]</t>
   </si>
   <si>
-    <t>[[99, 148, 149, 138, 96, 66, 57, 85], [100, 76, 89, 70, 158, 44], [38, 83, 153, 63, 5, 50]]</t>
+    <t>[[27, 139, 36, 41, 15, 17, 34, 18], [43, 44, 167, 29, 64, 79, 16, 40], [88, 89, 148, 25, 1, 70, 87]]</t>
   </si>
   <si>
-    <t>[[120, 139, 5, 74, 30, 69, 161], [133, 89, 108, 109, 106, 70], [65, 148, 57, 138, 96, 66, 149, 125]]</t>
+    <t>[[117, 86, 72, 18, 79, 16, 148, 27], [30, 110, 17, 41, 15, 70, 87], [100, 167, 29, 34, 152, 25, 1, 35]]</t>
   </si>
   <si>
-    <t>[[78, 69, 79, 87, 149, 148, 57, 161], [65, 100, 85, 86, 5, 50], [77, 138, 96, 125, 22, 74, 30]]</t>
+    <t>[[162, 19, 34, 15, 17, 77, 40, 29], [44, 167, 73, 152, 79, 16, 148, 27], [90, 36, 91, 72, 18, 45, 41]]</t>
   </si>
   <si>
-    <t>[[137, 148, 57, 138, 74, 30, 69, 161], [50, 87, 125, 79, 100, 85, 149], [89, 70, 76, 96, 108, 158]]</t>
+    <t>[[150, 72, 139, 36, 29, 64, 19], [45, 16, 148, 27, 18, 40, 82, 79], [55, 35, 167, 144, 15, 17, 77, 34]]</t>
   </si>
   <si>
-    <t>[[158, 96, 161, 92, 125, 86, 69, 149], [89, 85, 106, 70, 57, 138, 38], [115, 28, 66, 148, 136, 95]]</t>
+    <t>[[139, 36, 17, 16, 148, 79, 93, 1], [152, 18, 40, 82, 117, 41, 15, 34], [72, 132, 100, 167, 29, 64, 19]]</t>
   </si>
   <si>
-    <t>[[86, 149, 96, 161, 139, 28, 79, 22], [148, 57, 138, 38, 140, 74, 30, 125], [42, 50, 109, 63, 16, 85]]</t>
+    <t>[[90, 36, 144, 15, 167, 29, 35, 40], [73, 17, 16, 148, 25, 1, 91, 79], [38, 120, 110, 34, 152, 87, 139]]</t>
   </si>
   <si>
-    <t>[[109, 133, 89, 85, 63, 138, 149], [148, 57, 125, 70, 158, 96, 161, 139], [5, 79, 50, 8, 110, 74, 140]]</t>
+    <t>[[92, 25, 1, 70, 77, 40, 82], [73, 17, 16, 148, 79, 93, 149, 34], [145, 15, 35, 167, 29, 36, 144, 27]]</t>
   </si>
   <si>
-    <t>[[86, 69, 79, 158, 44, 50, 149, 148], [125, 70, 57, 138, 96, 161, 92, 38], [93, 85, 106, 5, 109, 140]]</t>
+    <t>[[45, 29, 64, 19, 34, 15, 35, 40], [113, 147, 148, 25, 1, 17, 16, 79], [91, 72, 139, 36, 144, 120, 27]]</t>
   </si>
   <si>
-    <t>[[106, 5, 109, 133, 85, 86, 149], [158, 44, 57, 148, 69, 79, 161, 96], [89, 70, 63, 138, 125, 30, 74]]</t>
+    <t>[[93, 34, 15, 70, 40, 29, 41, 18], [110, 17, 36, 144, 120, 86, 72], [102, 132, 79, 16, 148, 25, 1, 167]]</t>
   </si>
   <si>
-    <t>[[85, 86, 69, 138, 96, 125, 30, 149], [16, 66, 57, 109, 161, 139, 28], [92, 38, 89, 70, 63, 79, 148]]</t>
+    <t>[[44, 167, 29, 36, 144, 120, 110, 79], [81, 18, 38, 35, 40, 82, 117, 34], [73, 25, 1, 17, 16, 148, 27, 15]]</t>
   </si>
   <si>
-    <t>[[148, 57, 138, 92, 38, 85, 161, 149, 96], [44, 66, 125, 70, 158, 77, 22], [50, 110, 74, 30, 79, 87, 86]]</t>
+    <t>[[84, 64, 19, 27, 79, 18, 45, 34], [13, 17, 16, 148, 25, 1, 40, 36], [44, 167, 29, 41, 15, 35, 144, 120]]</t>
   </si>
   <si>
-    <t>[[125, 38, 148, 57, 149, 96, 161, 139, 120], [129, 158, 85, 86, 69, 5, 70], [138, 92, 30, 74, 140, 77, 133]]</t>
+    <t>[[102, 144, 36, 29, 64, 44, 167, 79], [15, 35, 40, 82, 17, 16, 148, 25], [19, 34, 18, 45, 41, 101, 117, 27]]</t>
+  </si>
+  <si>
+    <t>[[101, 117, 44, 167, 29, 64, 19, 34], [17, 16, 148, 25, 1, 27, 139, 36], [149, 77, 40, 41, 15, 35, 79, 18]]</t>
+  </si>
+  <si>
+    <t>[[19, 40, 82, 17, 16, 148, 25, 1], [36, 29, 64, 44, 167, 73, 41, 79], [18, 34, 15, 35, 144, 120, 110, 27]]</t>
   </si>
 </sst>
 </file>
@@ -165,99 +171,99 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8755462816769132</v>
+        <v>0.9386182071973697</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>84.1625</v>
+        <v>98.04999999999998</v>
       </c>
       <c r="D2" t="n">
-        <v>42.18</v>
+        <v>3.1125</v>
       </c>
       <c r="E2" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="F2" t="n">
-        <v>19885.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.8755462816769132</v>
+        <v>0.9386182071973697</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>84.1625</v>
+        <v>98.04999999999998</v>
       </c>
       <c r="D3" t="n">
-        <v>42.18</v>
+        <v>3.1125</v>
       </c>
       <c r="E3" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="F3" t="n">
-        <v>19885.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.859649468444134</v>
+        <v>0.9168603923748566</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>83.075</v>
+        <v>102.1125</v>
       </c>
       <c r="D4" t="n">
-        <v>27.64</v>
+        <v>2.778571428571429</v>
       </c>
       <c r="E4" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="F4" t="n">
-        <v>1872.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.859649468444134</v>
+        <v>0.9168603923748566</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>83.075</v>
+        <v>102.1125</v>
       </c>
       <c r="D5" t="n">
-        <v>27.64</v>
+        <v>2.778571428571429</v>
       </c>
       <c r="E5" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1872.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8548805823917807</v>
+        <v>0.9168603923748566</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>84.5</v>
+        <v>102.1125</v>
       </c>
       <c r="D6" t="n">
-        <v>45.1</v>
+        <v>2.778571428571429</v>
       </c>
       <c r="E6" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="F6" t="n">
         <v>0.0</v>
@@ -265,19 +271,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8548805823917807</v>
+        <v>0.9168603923748566</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>84.5</v>
+        <v>102.1125</v>
       </c>
       <c r="D7" t="n">
-        <v>45.1</v>
+        <v>2.778571428571429</v>
       </c>
       <c r="E7" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
@@ -285,19 +291,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8548805823917807</v>
+        <v>0.9168603923748566</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>84.5</v>
+        <v>102.1125</v>
       </c>
       <c r="D8" t="n">
-        <v>45.1</v>
+        <v>2.778571428571429</v>
       </c>
       <c r="E8" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="F8" t="n">
         <v>0.0</v>
@@ -305,99 +311,99 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8477046719429622</v>
+        <v>0.9168603923748566</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>87.2625</v>
+        <v>102.1125</v>
       </c>
       <c r="D9" t="n">
-        <v>31.300000000000008</v>
+        <v>2.778571428571429</v>
       </c>
       <c r="E9" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="F9" t="n">
-        <v>5751.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.8477046719429622</v>
+        <v>0.9168603923748566</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>87.2625</v>
+        <v>102.1125</v>
       </c>
       <c r="D10" t="n">
-        <v>31.300000000000008</v>
+        <v>2.778571428571429</v>
       </c>
       <c r="E10" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="F10" t="n">
-        <v>5751.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8477046719429622</v>
+        <v>0.9168603923748566</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>87.2625</v>
+        <v>102.1125</v>
       </c>
       <c r="D11" t="n">
-        <v>31.300000000000008</v>
+        <v>2.778571428571429</v>
       </c>
       <c r="E11" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="F11" t="n">
-        <v>5751.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8477046719429622</v>
+        <v>0.9168603923748566</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>87.2625</v>
+        <v>102.1125</v>
       </c>
       <c r="D12" t="n">
-        <v>31.300000000000008</v>
+        <v>2.778571428571429</v>
       </c>
       <c r="E12" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="F12" t="n">
-        <v>5751.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.8415357488906451</v>
+        <v>0.9168603923748566</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>88.675</v>
+        <v>102.1125</v>
       </c>
       <c r="D13" t="n">
-        <v>24.400000000000002</v>
+        <v>2.778571428571429</v>
       </c>
       <c r="E13" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="F13" t="n">
         <v>0.0</v>
@@ -405,79 +411,79 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.8160631019288331</v>
+        <v>0.9168603923748566</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>91.4</v>
+        <v>102.1125</v>
       </c>
       <c r="D14" t="n">
-        <v>27.095000000000006</v>
+        <v>2.778571428571429</v>
       </c>
       <c r="E14" t="n">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="F14" t="n">
-        <v>1935.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.8160631019288331</v>
+        <v>0.9168603923748566</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>91.4</v>
+        <v>102.1125</v>
       </c>
       <c r="D15" t="n">
-        <v>27.095000000000006</v>
+        <v>2.778571428571429</v>
       </c>
       <c r="E15" t="n">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="F15" t="n">
-        <v>1935.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.8160631019288331</v>
+        <v>0.9168603923748566</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>91.4</v>
+        <v>102.1125</v>
       </c>
       <c r="D16" t="n">
-        <v>27.095000000000006</v>
+        <v>2.778571428571429</v>
       </c>
       <c r="E16" t="n">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="F16" t="n">
-        <v>1935.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.8023939204556055</v>
+        <v>0.9121708501694666</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>95.625</v>
+        <v>104.12499999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>25.250000000000004</v>
+        <v>4.673809523809524</v>
       </c>
       <c r="E17" t="n">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="F17" t="n">
         <v>0.0</v>
@@ -485,39 +491,39 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.783120942687871</v>
+        <v>0.9121708501694666</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>97.5</v>
+        <v>104.12499999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>34.94</v>
+        <v>4.673809523809524</v>
       </c>
       <c r="E18" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="F18" t="n">
-        <v>8208.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.7746960851158395</v>
+        <v>0.9121708501694666</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>98.975</v>
+        <v>104.12499999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>25.544</v>
+        <v>4.673809523809524</v>
       </c>
       <c r="E19" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="F19" t="n">
         <v>0.0</v>
@@ -525,19 +531,19 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.7746960851158395</v>
+        <v>0.9121708501694666</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>98.975</v>
+        <v>104.12499999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>25.544</v>
+        <v>4.673809523809524</v>
       </c>
       <c r="E20" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="F20" t="n">
         <v>0.0</v>
@@ -545,219 +551,219 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.7414259477643158</v>
+        <v>0.9102542982429257</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>104.14999999999999</v>
+        <v>104.94999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>32.04</v>
+        <v>2.8023809523809526</v>
       </c>
       <c r="E21" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F21" t="n">
-        <v>1908.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.7414259477643158</v>
+        <v>0.9079937334661048</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C22" t="n">
-        <v>104.14999999999999</v>
+        <v>105.925</v>
       </c>
       <c r="D22" t="n">
-        <v>32.04</v>
+        <v>2.143333333333334</v>
       </c>
       <c r="E22" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F22" t="n">
-        <v>1908.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.7290579450391189</v>
+        <v>0.895156701654176</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C23" t="n">
-        <v>106.3875</v>
+        <v>106.1625</v>
       </c>
       <c r="D23" t="n">
-        <v>25.43</v>
+        <v>2.2000000000000006</v>
       </c>
       <c r="E23" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F23" t="n">
-        <v>14103.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.7290579450391189</v>
+        <v>0.8899188073923037</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C24" t="n">
-        <v>106.3875</v>
+        <v>108.39999999999998</v>
       </c>
       <c r="D24" t="n">
-        <v>25.43</v>
+        <v>2.1772727272727272</v>
       </c>
       <c r="E24" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F24" t="n">
-        <v>14103.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.7272953885223458</v>
+        <v>0.8886934919146738</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C25" t="n">
-        <v>104.3</v>
+        <v>108.925</v>
       </c>
       <c r="D25" t="n">
-        <v>29.499999999999996</v>
+        <v>2.6136363636363638</v>
       </c>
       <c r="E25" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F25" t="n">
-        <v>7362.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7121860637446291</v>
+        <v>0.8676290506466134</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C26" t="n">
-        <v>109.4</v>
+        <v>112.69999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>33.0</v>
+        <v>2.8400000000000003</v>
       </c>
       <c r="E26" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="F26" t="n">
-        <v>8802.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.7121860637446291</v>
+        <v>0.8676290506466134</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C27" t="n">
-        <v>109.4</v>
+        <v>112.69999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>33.0</v>
+        <v>2.8400000000000003</v>
       </c>
       <c r="E27" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="F27" t="n">
-        <v>8802.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.7121860637446291</v>
+        <v>0.8676290506466134</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C28" t="n">
-        <v>109.4</v>
+        <v>112.69999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>33.0</v>
+        <v>2.8400000000000003</v>
       </c>
       <c r="E28" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="F28" t="n">
-        <v>8802.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.7121860637446291</v>
+        <v>0.8676290506466134</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C29" t="n">
-        <v>109.4</v>
+        <v>112.69999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>33.0</v>
+        <v>2.8400000000000003</v>
       </c>
       <c r="E29" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="F29" t="n">
-        <v>8802.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.7106224691414005</v>
+        <v>0.8676290506466134</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C30" t="n">
-        <v>108.5</v>
+        <v>112.69999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>27.21</v>
+        <v>2.8400000000000003</v>
       </c>
       <c r="E30" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="F30" t="n">
-        <v>1867.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.6812489050698799</v>
+        <v>0.8676290506466134</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C31" t="n">
-        <v>112.36249999999998</v>
+        <v>112.69999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>34.205999999999996</v>
+        <v>2.8400000000000003</v>
       </c>
       <c r="E31" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -765,19 +771,19 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.6812489050698799</v>
+        <v>0.8676290506466134</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C32" t="n">
-        <v>112.36249999999998</v>
+        <v>112.69999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>34.205999999999996</v>
+        <v>2.8400000000000003</v>
       </c>
       <c r="E32" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F32" t="n">
         <v>0.0</v>
@@ -785,19 +791,19 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.6812489050698799</v>
+        <v>0.8676290506466134</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C33" t="n">
-        <v>112.36249999999998</v>
+        <v>112.69999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>34.205999999999996</v>
+        <v>2.8400000000000003</v>
       </c>
       <c r="E33" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F33" t="n">
         <v>0.0</v>
@@ -805,19 +811,19 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.6812489050698799</v>
+        <v>0.8676290506466134</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C34" t="n">
-        <v>112.36249999999998</v>
+        <v>112.69999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>34.205999999999996</v>
+        <v>2.8400000000000003</v>
       </c>
       <c r="E34" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F34" t="n">
         <v>0.0</v>
@@ -825,19 +831,19 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.6812489050698799</v>
+        <v>0.8669841735889957</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C35" t="n">
-        <v>112.36249999999998</v>
+        <v>112.975</v>
       </c>
       <c r="D35" t="n">
-        <v>34.205999999999996</v>
+        <v>2.5478260869565217</v>
       </c>
       <c r="E35" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F35" t="n">
         <v>0.0</v>
@@ -845,19 +851,19 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.6812489050698799</v>
+        <v>0.8669841735889957</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C36" t="n">
-        <v>112.36249999999998</v>
+        <v>112.975</v>
       </c>
       <c r="D36" t="n">
-        <v>34.205999999999996</v>
+        <v>2.5478260869565217</v>
       </c>
       <c r="E36" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F36" t="n">
         <v>0.0</v>
@@ -865,19 +871,19 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.6812489050698799</v>
+        <v>0.8669841735889957</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C37" t="n">
-        <v>112.36249999999998</v>
+        <v>112.975</v>
       </c>
       <c r="D37" t="n">
-        <v>34.205999999999996</v>
+        <v>2.5478260869565217</v>
       </c>
       <c r="E37" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F37" t="n">
         <v>0.0</v>
@@ -885,359 +891,359 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.6781294729636944</v>
+        <v>0.8664861286322249</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C38" t="n">
-        <v>113.3875</v>
+        <v>113.18749999999997</v>
       </c>
       <c r="D38" t="n">
-        <v>23.549999999999997</v>
+        <v>2.4086956521739133</v>
       </c>
       <c r="E38" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F38" t="n">
-        <v>1867.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.6781294729636944</v>
+        <v>0.8664861286322249</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C39" t="n">
-        <v>113.3875</v>
+        <v>113.18749999999997</v>
       </c>
       <c r="D39" t="n">
-        <v>23.549999999999997</v>
+        <v>2.4086956521739133</v>
       </c>
       <c r="E39" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F39" t="n">
-        <v>1867.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.6781294729636944</v>
+        <v>0.8664861286322249</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C40" t="n">
-        <v>113.3875</v>
+        <v>113.18749999999997</v>
       </c>
       <c r="D40" t="n">
-        <v>23.549999999999997</v>
+        <v>2.4086956521739133</v>
       </c>
       <c r="E40" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F40" t="n">
-        <v>1867.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.6781294729636944</v>
+        <v>0.8654907447365978</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C41" t="n">
-        <v>113.3875</v>
+        <v>113.61249999999998</v>
       </c>
       <c r="D41" t="n">
-        <v>23.549999999999997</v>
+        <v>2.66304347826087</v>
       </c>
       <c r="E41" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F41" t="n">
-        <v>1867.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.6781294729636944</v>
+        <v>0.8654907447365978</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C42" t="n">
-        <v>113.3875</v>
+        <v>113.61249999999998</v>
       </c>
       <c r="D42" t="n">
-        <v>23.549999999999997</v>
+        <v>2.66304347826087</v>
       </c>
       <c r="E42" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F42" t="n">
-        <v>1867.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.6781294729636944</v>
+        <v>0.8654907447365978</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C43" t="n">
-        <v>113.3875</v>
+        <v>113.61249999999998</v>
       </c>
       <c r="D43" t="n">
-        <v>23.549999999999997</v>
+        <v>2.66304347826087</v>
       </c>
       <c r="E43" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F43" t="n">
-        <v>1867.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.6781294729636944</v>
+        <v>0.8651981634234313</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C44" t="n">
-        <v>113.3875</v>
+        <v>113.73749999999997</v>
       </c>
       <c r="D44" t="n">
-        <v>23.549999999999997</v>
+        <v>2.3021739130434784</v>
       </c>
       <c r="E44" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F44" t="n">
-        <v>1867.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.6750893257710069</v>
+        <v>0.8651981634234313</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C45" t="n">
-        <v>114.325</v>
+        <v>113.73749999999997</v>
       </c>
       <c r="D45" t="n">
-        <v>17.59</v>
+        <v>2.3021739130434784</v>
       </c>
       <c r="E45" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F45" t="n">
-        <v>1876.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.6750893257710069</v>
+        <v>0.8648179309508713</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C46" t="n">
-        <v>114.325</v>
+        <v>113.9</v>
       </c>
       <c r="D46" t="n">
-        <v>17.59</v>
+        <v>2.5978260869565215</v>
       </c>
       <c r="E46" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F46" t="n">
-        <v>1876.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.6750893257710069</v>
+        <v>0.8648179309508713</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C47" t="n">
-        <v>114.325</v>
+        <v>113.9</v>
       </c>
       <c r="D47" t="n">
-        <v>17.59</v>
+        <v>2.5978260869565215</v>
       </c>
       <c r="E47" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F47" t="n">
-        <v>1876.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.6750893257710069</v>
+        <v>0.8646717238727336</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C48" t="n">
-        <v>114.325</v>
+        <v>113.96249999999998</v>
       </c>
       <c r="D48" t="n">
-        <v>17.59</v>
+        <v>2.3065217391304342</v>
       </c>
       <c r="E48" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F48" t="n">
-        <v>1876.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.6750893257710069</v>
+        <v>0.8646717238727336</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C49" t="n">
-        <v>114.325</v>
+        <v>113.96249999999998</v>
       </c>
       <c r="D49" t="n">
-        <v>17.59</v>
+        <v>2.3065217391304342</v>
       </c>
       <c r="E49" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F49" t="n">
-        <v>1876.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.6750893257710069</v>
+        <v>0.8646132463914393</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C50" t="n">
-        <v>114.325</v>
+        <v>113.98749999999998</v>
       </c>
       <c r="D50" t="n">
-        <v>17.59</v>
+        <v>1.873913043478261</v>
       </c>
       <c r="E50" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F50" t="n">
-        <v>1876.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.6750893257710069</v>
+        <v>0.8646132463914393</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C51" t="n">
-        <v>114.325</v>
+        <v>113.98749999999998</v>
       </c>
       <c r="D51" t="n">
-        <v>17.59</v>
+        <v>1.873913043478261</v>
       </c>
       <c r="E51" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F51" t="n">
-        <v>1876.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.6750893257710069</v>
+        <v>0.8636196402307121</v>
       </c>
       <c r="B52" t="s">
         <v>22</v>
       </c>
       <c r="C52" t="n">
-        <v>114.325</v>
+        <v>114.4125</v>
       </c>
       <c r="D52" t="n">
-        <v>17.59</v>
+        <v>2.1913043478260867</v>
       </c>
       <c r="E52" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F52" t="n">
-        <v>1876.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.6750893257710069</v>
+        <v>0.8636196402307121</v>
       </c>
       <c r="B53" t="s">
         <v>22</v>
       </c>
       <c r="C53" t="n">
-        <v>114.325</v>
+        <v>114.4125</v>
       </c>
       <c r="D53" t="n">
-        <v>17.59</v>
+        <v>2.1913043478260867</v>
       </c>
       <c r="E53" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F53" t="n">
-        <v>1876.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.6750893257710069</v>
+        <v>0.8617227433245754</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C54" t="n">
-        <v>114.325</v>
+        <v>115.22500000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>17.59</v>
+        <v>2.5695652173913044</v>
       </c>
       <c r="E54" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F54" t="n">
-        <v>1876.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.6742989047074295</v>
+        <v>0.8481635329937105</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C55" t="n">
-        <v>114.49999999999999</v>
+        <v>115.81249999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>19.27</v>
+        <v>2.2435</v>
       </c>
       <c r="E55" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F55" t="n">
         <v>0.0</v>
@@ -1245,19 +1251,19 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.6742989047074295</v>
+        <v>0.8481635329937105</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C56" t="n">
-        <v>114.49999999999999</v>
+        <v>115.81249999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>19.27</v>
+        <v>2.2435</v>
       </c>
       <c r="E56" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F56" t="n">
         <v>0.0</v>
@@ -1265,19 +1271,19 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.6742989047074295</v>
+        <v>0.8481635329937105</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C57" t="n">
-        <v>114.49999999999999</v>
+        <v>115.81249999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>19.27</v>
+        <v>2.2435</v>
       </c>
       <c r="E57" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F57" t="n">
         <v>0.0</v>
@@ -1285,19 +1291,19 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.6742989047074295</v>
+        <v>0.8481635329937105</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C58" t="n">
-        <v>114.49999999999999</v>
+        <v>115.81249999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>19.27</v>
+        <v>2.2435</v>
       </c>
       <c r="E58" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F58" t="n">
         <v>0.0</v>
@@ -1305,19 +1311,19 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.6742989047074295</v>
+        <v>0.8481635329937105</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C59" t="n">
-        <v>114.49999999999999</v>
+        <v>115.81249999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>19.27</v>
+        <v>2.2435</v>
       </c>
       <c r="E59" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F59" t="n">
         <v>0.0</v>
@@ -1325,19 +1331,19 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.6742989047074295</v>
+        <v>0.8481635329937105</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C60" t="n">
-        <v>114.49999999999999</v>
+        <v>115.81249999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>19.27</v>
+        <v>2.2435</v>
       </c>
       <c r="E60" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F60" t="n">
         <v>0.0</v>
@@ -1345,19 +1351,19 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.6742989047074295</v>
+        <v>0.8481635329937105</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C61" t="n">
-        <v>114.49999999999999</v>
+        <v>115.81249999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>19.27</v>
+        <v>2.2435</v>
       </c>
       <c r="E61" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F61" t="n">
         <v>0.0</v>
@@ -1365,19 +1371,19 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.6742989047074295</v>
+        <v>0.8481635329937105</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C62" t="n">
-        <v>114.49999999999999</v>
+        <v>115.81249999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>19.27</v>
+        <v>2.2435</v>
       </c>
       <c r="E62" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F62" t="n">
         <v>0.0</v>
@@ -1385,19 +1391,19 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.6742989047074295</v>
+        <v>0.8481635329937105</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C63" t="n">
-        <v>114.49999999999999</v>
+        <v>115.81249999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>19.27</v>
+        <v>2.2435</v>
       </c>
       <c r="E63" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F63" t="n">
         <v>0.0</v>
@@ -1405,19 +1411,19 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.6742989047074295</v>
+        <v>0.8481635329937105</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C64" t="n">
-        <v>114.49999999999999</v>
+        <v>115.81249999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>19.27</v>
+        <v>2.2435</v>
       </c>
       <c r="E64" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F64" t="n">
         <v>0.0</v>
@@ -1425,19 +1431,19 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.6742989047074295</v>
+        <v>0.8481635329937105</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C65" t="n">
-        <v>114.49999999999999</v>
+        <v>115.81249999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>19.27</v>
+        <v>2.2435</v>
       </c>
       <c r="E65" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F65" t="n">
         <v>0.0</v>
@@ -1445,19 +1451,19 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.6742989047074295</v>
+        <v>0.8481635329937105</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C66" t="n">
-        <v>114.49999999999999</v>
+        <v>115.81249999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>19.27</v>
+        <v>2.2435</v>
       </c>
       <c r="E66" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F66" t="n">
         <v>0.0</v>
@@ -1465,19 +1471,19 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.6742989047074295</v>
+        <v>0.8481635329937105</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C67" t="n">
-        <v>114.49999999999999</v>
+        <v>115.81249999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>19.27</v>
+        <v>2.2435</v>
       </c>
       <c r="E67" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F67" t="n">
         <v>0.0</v>
@@ -1485,19 +1491,19 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.6742989047074295</v>
+        <v>0.8481635329937105</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>114.49999999999999</v>
+        <v>115.81249999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>19.27</v>
+        <v>2.2435</v>
       </c>
       <c r="E68" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F68" t="n">
         <v>0.0</v>
@@ -1505,19 +1511,19 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.6742989047074295</v>
+        <v>0.8481635329937105</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C69" t="n">
-        <v>114.49999999999999</v>
+        <v>115.81249999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>19.27</v>
+        <v>2.2435</v>
       </c>
       <c r="E69" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F69" t="n">
         <v>0.0</v>
@@ -1525,19 +1531,19 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.6742989047074295</v>
+        <v>0.8481635329937105</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C70" t="n">
-        <v>114.49999999999999</v>
+        <v>115.81249999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>19.27</v>
+        <v>2.2435</v>
       </c>
       <c r="E70" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F70" t="n">
         <v>0.0</v>
@@ -1545,19 +1551,19 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.6742989047074295</v>
+        <v>0.8481635329937105</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C71" t="n">
-        <v>114.49999999999999</v>
+        <v>115.81249999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>19.27</v>
+        <v>2.2435</v>
       </c>
       <c r="E71" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F71" t="n">
         <v>0.0</v>
@@ -1565,19 +1571,19 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.6742989047074295</v>
+        <v>0.8479272737825884</v>
       </c>
       <c r="B72" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C72" t="n">
-        <v>114.49999999999999</v>
+        <v>115.9125</v>
       </c>
       <c r="D72" t="n">
-        <v>19.27</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="E72" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F72" t="n">
         <v>0.0</v>
@@ -1585,19 +1591,19 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.6742989047074295</v>
+        <v>0.8479272737825884</v>
       </c>
       <c r="B73" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C73" t="n">
-        <v>114.49999999999999</v>
+        <v>115.9125</v>
       </c>
       <c r="D73" t="n">
-        <v>19.27</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="E73" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F73" t="n">
         <v>0.0</v>
@@ -1605,19 +1611,19 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.6742989047074295</v>
+        <v>0.8479272737825884</v>
       </c>
       <c r="B74" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C74" t="n">
-        <v>114.49999999999999</v>
+        <v>115.9125</v>
       </c>
       <c r="D74" t="n">
-        <v>19.27</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="E74" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F74" t="n">
         <v>0.0</v>
@@ -1625,19 +1631,19 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.6742989047074295</v>
+        <v>0.8479272737825884</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C75" t="n">
-        <v>114.49999999999999</v>
+        <v>115.9125</v>
       </c>
       <c r="D75" t="n">
-        <v>19.27</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="E75" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F75" t="n">
         <v>0.0</v>
@@ -1645,19 +1651,19 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.6742989047074295</v>
+        <v>0.8479272737825884</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C76" t="n">
-        <v>114.49999999999999</v>
+        <v>115.9125</v>
       </c>
       <c r="D76" t="n">
-        <v>19.27</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="E76" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F76" t="n">
         <v>0.0</v>
@@ -1665,19 +1671,19 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.6742989047074295</v>
+        <v>0.8479272737825884</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C77" t="n">
-        <v>114.49999999999999</v>
+        <v>115.9125</v>
       </c>
       <c r="D77" t="n">
-        <v>19.27</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="E77" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F77" t="n">
         <v>0.0</v>
@@ -1685,19 +1691,19 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.6742989047074295</v>
+        <v>0.8479272737825884</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C78" t="n">
-        <v>114.49999999999999</v>
+        <v>115.9125</v>
       </c>
       <c r="D78" t="n">
-        <v>19.27</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="E78" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F78" t="n">
         <v>0.0</v>
@@ -1705,19 +1711,19 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8479272737825884</v>
       </c>
       <c r="B79" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C79" t="n">
-        <v>115.2375</v>
+        <v>115.9125</v>
       </c>
       <c r="D79" t="n">
-        <v>24.389999999999997</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="E79" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F79" t="n">
         <v>0.0</v>
@@ -1725,19 +1731,19 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8479272737825884</v>
       </c>
       <c r="B80" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C80" t="n">
-        <v>115.2375</v>
+        <v>115.9125</v>
       </c>
       <c r="D80" t="n">
-        <v>24.389999999999997</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="E80" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F80" t="n">
         <v>0.0</v>
@@ -1745,19 +1751,19 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8475434611668592</v>
       </c>
       <c r="B81" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C81" t="n">
-        <v>115.2375</v>
+        <v>116.07500000000002</v>
       </c>
       <c r="D81" t="n">
-        <v>24.389999999999997</v>
+        <v>2.1645833333333333</v>
       </c>
       <c r="E81" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F81" t="n">
         <v>0.0</v>
@@ -1765,19 +1771,19 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8475434611668592</v>
       </c>
       <c r="B82" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C82" t="n">
-        <v>115.2375</v>
+        <v>116.07500000000002</v>
       </c>
       <c r="D82" t="n">
-        <v>24.389999999999997</v>
+        <v>2.1645833333333333</v>
       </c>
       <c r="E82" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F82" t="n">
         <v>0.0</v>
@@ -1785,19 +1791,19 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8475434611668592</v>
       </c>
       <c r="B83" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C83" t="n">
-        <v>115.2375</v>
+        <v>116.07500000000002</v>
       </c>
       <c r="D83" t="n">
-        <v>24.389999999999997</v>
+        <v>2.1645833333333333</v>
       </c>
       <c r="E83" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F83" t="n">
         <v>0.0</v>
@@ -1805,19 +1811,19 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8475434611668592</v>
       </c>
       <c r="B84" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C84" t="n">
-        <v>115.2375</v>
+        <v>116.07500000000002</v>
       </c>
       <c r="D84" t="n">
-        <v>24.389999999999997</v>
+        <v>2.1645833333333333</v>
       </c>
       <c r="E84" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F84" t="n">
         <v>0.0</v>
@@ -1825,19 +1831,19 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8475434611668592</v>
       </c>
       <c r="B85" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C85" t="n">
-        <v>115.2375</v>
+        <v>116.07500000000002</v>
       </c>
       <c r="D85" t="n">
-        <v>24.389999999999997</v>
+        <v>2.1645833333333333</v>
       </c>
       <c r="E85" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F85" t="n">
         <v>0.0</v>
@@ -1845,19 +1851,19 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8475434611668592</v>
       </c>
       <c r="B86" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C86" t="n">
-        <v>115.2375</v>
+        <v>116.07500000000002</v>
       </c>
       <c r="D86" t="n">
-        <v>24.389999999999997</v>
+        <v>2.1645833333333333</v>
       </c>
       <c r="E86" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F86" t="n">
         <v>0.0</v>
@@ -1865,19 +1871,19 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8475434611668592</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C87" t="n">
-        <v>115.2375</v>
+        <v>116.07500000000002</v>
       </c>
       <c r="D87" t="n">
-        <v>24.389999999999997</v>
+        <v>2.1645833333333333</v>
       </c>
       <c r="E87" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F87" t="n">
         <v>0.0</v>
@@ -1885,19 +1891,19 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8475434611668592</v>
       </c>
       <c r="B88" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C88" t="n">
-        <v>115.2375</v>
+        <v>116.07500000000002</v>
       </c>
       <c r="D88" t="n">
-        <v>24.389999999999997</v>
+        <v>2.1645833333333333</v>
       </c>
       <c r="E88" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F88" t="n">
         <v>0.0</v>
@@ -1905,19 +1911,19 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8475434611668592</v>
       </c>
       <c r="B89" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C89" t="n">
-        <v>115.2375</v>
+        <v>116.07500000000002</v>
       </c>
       <c r="D89" t="n">
-        <v>24.389999999999997</v>
+        <v>2.1645833333333333</v>
       </c>
       <c r="E89" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F89" t="n">
         <v>0.0</v>
@@ -1925,19 +1931,19 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8475434611668592</v>
       </c>
       <c r="B90" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C90" t="n">
-        <v>115.2375</v>
+        <v>116.07500000000002</v>
       </c>
       <c r="D90" t="n">
-        <v>24.389999999999997</v>
+        <v>2.1645833333333333</v>
       </c>
       <c r="E90" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F90" t="n">
         <v>0.0</v>
@@ -1945,19 +1951,19 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8475434611668592</v>
       </c>
       <c r="B91" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C91" t="n">
-        <v>115.2375</v>
+        <v>116.07500000000002</v>
       </c>
       <c r="D91" t="n">
-        <v>24.389999999999997</v>
+        <v>2.1645833333333333</v>
       </c>
       <c r="E91" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F91" t="n">
         <v>0.0</v>
@@ -1965,19 +1971,19 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8475434611668592</v>
       </c>
       <c r="B92" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C92" t="n">
-        <v>115.2375</v>
+        <v>116.07500000000002</v>
       </c>
       <c r="D92" t="n">
-        <v>24.389999999999997</v>
+        <v>2.1645833333333333</v>
       </c>
       <c r="E92" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F92" t="n">
         <v>0.0</v>
@@ -1985,19 +1991,19 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8475434611668592</v>
       </c>
       <c r="B93" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C93" t="n">
-        <v>115.2375</v>
+        <v>116.07500000000002</v>
       </c>
       <c r="D93" t="n">
-        <v>24.389999999999997</v>
+        <v>2.1645833333333333</v>
       </c>
       <c r="E93" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F93" t="n">
         <v>0.0</v>
@@ -2005,19 +2011,19 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8475434611668592</v>
       </c>
       <c r="B94" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C94" t="n">
-        <v>115.2375</v>
+        <v>116.07500000000002</v>
       </c>
       <c r="D94" t="n">
-        <v>24.389999999999997</v>
+        <v>2.1645833333333333</v>
       </c>
       <c r="E94" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F94" t="n">
         <v>0.0</v>
@@ -2025,19 +2031,19 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8475434611668592</v>
       </c>
       <c r="B95" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C95" t="n">
-        <v>115.2375</v>
+        <v>116.07500000000002</v>
       </c>
       <c r="D95" t="n">
-        <v>24.389999999999997</v>
+        <v>2.1645833333333333</v>
       </c>
       <c r="E95" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F95" t="n">
         <v>0.0</v>
@@ -2045,19 +2051,19 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8475434611668592</v>
       </c>
       <c r="B96" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C96" t="n">
-        <v>115.2375</v>
+        <v>116.07500000000002</v>
       </c>
       <c r="D96" t="n">
-        <v>24.389999999999997</v>
+        <v>2.1645833333333333</v>
       </c>
       <c r="E96" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F96" t="n">
         <v>0.0</v>
@@ -2065,19 +2071,19 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8475434611668592</v>
       </c>
       <c r="B97" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C97" t="n">
-        <v>115.2375</v>
+        <v>116.07500000000002</v>
       </c>
       <c r="D97" t="n">
-        <v>24.389999999999997</v>
+        <v>2.1645833333333333</v>
       </c>
       <c r="E97" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F97" t="n">
         <v>0.0</v>
@@ -2085,19 +2091,19 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B98" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C98" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D98" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E98" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F98" t="n">
         <v>0.0</v>
@@ -2105,19 +2111,19 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B99" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C99" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D99" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E99" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F99" t="n">
         <v>0.0</v>
@@ -2125,19 +2131,19 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B100" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C100" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D100" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E100" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F100" t="n">
         <v>0.0</v>
@@ -2145,19 +2151,19 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B101" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C101" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D101" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E101" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F101" t="n">
         <v>0.0</v>
@@ -2165,19 +2171,19 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B102" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C102" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D102" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E102" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F102" t="n">
         <v>0.0</v>
@@ -2185,19 +2191,19 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B103" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C103" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D103" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E103" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F103" t="n">
         <v>0.0</v>
@@ -2205,19 +2211,19 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B104" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C104" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D104" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E104" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F104" t="n">
         <v>0.0</v>
@@ -2225,19 +2231,19 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B105" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C105" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D105" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E105" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F105" t="n">
         <v>0.0</v>
@@ -2245,19 +2251,19 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B106" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C106" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D106" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E106" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F106" t="n">
         <v>0.0</v>
@@ -2265,19 +2271,19 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B107" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C107" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D107" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E107" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F107" t="n">
         <v>0.0</v>
@@ -2285,19 +2291,19 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B108" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C108" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D108" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E108" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F108" t="n">
         <v>0.0</v>
@@ -2305,19 +2311,19 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B109" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C109" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D109" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E109" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F109" t="n">
         <v>0.0</v>
@@ -2325,19 +2331,19 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B110" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C110" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D110" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E110" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F110" t="n">
         <v>0.0</v>
@@ -2345,19 +2351,19 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B111" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C111" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D111" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E111" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F111" t="n">
         <v>0.0</v>
@@ -2365,19 +2371,19 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B112" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C112" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D112" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E112" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F112" t="n">
         <v>0.0</v>
@@ -2385,19 +2391,19 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B113" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C113" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D113" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E113" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F113" t="n">
         <v>0.0</v>
@@ -2405,19 +2411,19 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B114" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C114" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D114" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E114" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F114" t="n">
         <v>0.0</v>
@@ -2425,19 +2431,19 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B115" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C115" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D115" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E115" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F115" t="n">
         <v>0.0</v>
@@ -2445,19 +2451,19 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B116" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C116" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D116" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E116" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F116" t="n">
         <v>0.0</v>
@@ -2465,19 +2471,19 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B117" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C117" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D117" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E117" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F117" t="n">
         <v>0.0</v>
@@ -2485,19 +2491,19 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B118" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C118" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D118" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E118" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F118" t="n">
         <v>0.0</v>
@@ -2505,19 +2511,19 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B119" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C119" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D119" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E119" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F119" t="n">
         <v>0.0</v>
@@ -2525,19 +2531,19 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B120" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C120" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D120" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E120" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F120" t="n">
         <v>0.0</v>
@@ -2545,19 +2551,19 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B121" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C121" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D121" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E121" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F121" t="n">
         <v>0.0</v>
@@ -2565,19 +2571,19 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B122" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C122" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D122" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E122" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F122" t="n">
         <v>0.0</v>
@@ -2585,19 +2591,19 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B123" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C123" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D123" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E123" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F123" t="n">
         <v>0.0</v>
@@ -2605,19 +2611,19 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B124" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C124" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D124" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E124" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F124" t="n">
         <v>0.0</v>
@@ -2625,19 +2631,19 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B125" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C125" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D125" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E125" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F125" t="n">
         <v>0.0</v>
@@ -2645,19 +2651,19 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B126" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C126" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D126" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E126" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F126" t="n">
         <v>0.0</v>
@@ -2665,19 +2671,19 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B127" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C127" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D127" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E127" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F127" t="n">
         <v>0.0</v>
@@ -2685,19 +2691,19 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B128" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C128" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D128" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E128" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F128" t="n">
         <v>0.0</v>
@@ -2705,19 +2711,19 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B129" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C129" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D129" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E129" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F129" t="n">
         <v>0.0</v>
@@ -2725,19 +2731,19 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B130" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C130" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D130" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E130" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F130" t="n">
         <v>0.0</v>
@@ -2745,19 +2751,19 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B131" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C131" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D131" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E131" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F131" t="n">
         <v>0.0</v>
@@ -2765,19 +2771,19 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B132" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C132" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D132" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E132" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F132" t="n">
         <v>0.0</v>
@@ -2785,19 +2791,19 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B133" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C133" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D133" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E133" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F133" t="n">
         <v>0.0</v>
@@ -2805,19 +2811,19 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.6719144712289791</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B134" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C134" t="n">
-        <v>115.2375</v>
+        <v>117.0625</v>
       </c>
       <c r="D134" t="n">
-        <v>24.389999999999997</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E134" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F134" t="n">
         <v>0.0</v>
@@ -2825,3342 +2831,3342 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B135" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C135" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D135" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E135" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F135" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B136" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C136" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D136" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E136" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F136" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B137" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C137" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D137" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E137" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F137" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B138" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C138" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D138" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E138" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F138" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B139" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C139" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D139" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E139" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F139" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B140" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C140" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D140" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E140" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F140" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B141" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C141" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D141" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E141" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F141" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B142" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C142" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D142" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E142" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F142" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B143" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C143" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D143" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E143" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F143" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B144" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C144" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D144" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E144" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F144" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B145" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C145" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D145" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E145" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F145" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B146" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C146" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D146" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E146" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F146" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B147" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C147" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D147" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E147" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F147" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B148" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C148" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D148" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E148" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F148" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B149" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C149" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D149" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E149" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F149" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B150" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C150" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D150" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E150" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F150" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B151" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C151" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D151" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E151" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F151" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B152" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C152" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D152" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E152" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F152" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B153" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C153" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D153" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E153" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F153" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B154" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C154" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D154" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E154" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F154" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B155" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C155" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D155" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E155" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F155" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B156" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C156" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D156" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E156" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F156" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B157" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C157" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D157" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E157" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F157" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B158" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C158" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D158" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E158" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F158" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B159" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C159" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D159" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E159" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F159" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B160" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C160" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D160" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E160" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F160" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B161" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C161" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D161" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E161" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F161" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B162" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C162" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D162" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E162" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F162" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B163" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C163" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D163" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E163" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F163" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B164" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C164" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D164" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E164" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F164" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B165" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C165" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D165" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E165" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F165" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B166" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C166" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D166" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E166" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F166" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B167" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C167" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D167" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E167" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F167" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8452140373936081</v>
       </c>
       <c r="B168" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C168" t="n">
-        <v>116.4</v>
+        <v>117.0625</v>
       </c>
       <c r="D168" t="n">
-        <v>44.92100000000001</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="E168" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F168" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B169" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C169" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D169" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E169" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F169" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B170" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C170" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D170" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E170" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F170" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B171" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C171" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D171" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E171" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F171" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B172" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C172" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D172" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E172" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F172" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B173" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C173" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D173" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E173" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F173" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B174" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C174" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D174" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E174" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F174" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B175" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C175" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D175" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E175" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F175" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B176" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C176" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D176" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E176" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F176" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B177" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C177" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D177" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E177" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F177" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B178" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C178" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D178" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E178" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F178" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B179" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C179" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D179" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E179" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F179" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B180" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C180" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D180" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E180" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F180" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B181" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C181" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D181" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E181" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F181" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B182" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C182" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D182" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E182" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F182" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B183" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C183" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D183" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E183" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F183" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B184" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C184" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D184" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E184" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F184" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B185" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C185" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D185" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E185" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F185" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B186" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C186" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D186" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E186" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F186" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B187" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C187" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D187" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E187" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F187" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B188" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C188" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D188" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E188" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F188" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B189" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C189" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D189" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E189" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F189" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B190" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C190" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D190" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E190" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F190" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B191" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C191" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D191" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E191" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F191" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B192" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C192" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D192" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E192" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F192" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B193" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C193" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D193" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E193" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F193" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B194" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C194" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D194" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E194" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F194" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B195" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C195" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D195" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E195" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F195" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B196" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C196" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D196" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E196" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F196" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B197" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C197" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D197" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E197" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F197" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B198" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C198" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D198" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E198" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F198" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B199" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C199" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D199" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E199" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F199" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B200" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C200" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D200" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E200" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F200" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B201" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C201" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D201" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E201" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F201" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B202" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C202" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D202" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E202" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F202" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B203" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C203" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D203" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E203" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F203" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B204" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C204" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D204" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E204" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F204" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B205" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C205" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D205" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E205" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F205" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B206" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C206" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D206" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E206" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F206" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B207" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C207" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D207" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E207" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F207" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B208" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C208" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D208" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E208" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F208" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B209" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C209" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D209" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E209" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F209" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B210" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C210" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D210" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E210" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F210" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B211" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C211" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D211" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E211" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F211" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B212" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C212" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D212" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E212" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F212" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B213" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C213" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D213" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E213" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F213" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B214" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C214" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D214" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E214" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F214" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B215" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C215" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D215" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E215" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F215" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B216" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C216" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D216" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E216" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F216" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B217" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C217" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D217" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E217" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F217" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.6621200547515922</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B218" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C218" t="n">
-        <v>116.4</v>
+        <v>117.1625</v>
       </c>
       <c r="D218" t="n">
-        <v>44.92100000000001</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E218" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F218" t="n">
-        <v>12699.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B219" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C219" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D219" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E219" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F219" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B220" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C220" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D220" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E220" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F220" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B221" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C221" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D221" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E221" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F221" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B222" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C222" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D222" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E222" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F222" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B223" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C223" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D223" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E223" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F223" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B224" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C224" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D224" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E224" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F224" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B225" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C225" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D225" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E225" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F225" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B226" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C226" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D226" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E226" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F226" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B227" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C227" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D227" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E227" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F227" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B228" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C228" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D228" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E228" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F228" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B229" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C229" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D229" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E229" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F229" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B230" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C230" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D230" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E230" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F230" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B231" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C231" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D231" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E231" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F231" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B232" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C232" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D232" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E232" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F232" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B233" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C233" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D233" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E233" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F233" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B234" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C234" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D234" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E234" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F234" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B235" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C235" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D235" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E235" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F235" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B236" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C236" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D236" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E236" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F236" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B237" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C237" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D237" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E237" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F237" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B238" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C238" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D238" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E238" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F238" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B239" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C239" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D239" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E239" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F239" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B240" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C240" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D240" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E240" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F240" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B241" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C241" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D241" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E241" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F241" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B242" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C242" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D242" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E242" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F242" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B243" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C243" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D243" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E243" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F243" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B244" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C244" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D244" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E244" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F244" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B245" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C245" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D245" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E245" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F245" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B246" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C246" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D246" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E246" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F246" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B247" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C247" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D247" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E247" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F247" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B248" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C248" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D248" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E248" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F248" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B249" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C249" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D249" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E249" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F249" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B250" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C250" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D250" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E250" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F250" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B251" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C251" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D251" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E251" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F251" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B252" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C252" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D252" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E252" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F252" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B253" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C253" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D253" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E253" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F253" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B254" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C254" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D254" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E254" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F254" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B255" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C255" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D255" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E255" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F255" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B256" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C256" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D256" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E256" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F256" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B257" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C257" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D257" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E257" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F257" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B258" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C258" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D258" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E258" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F258" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B259" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C259" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D259" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E259" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F259" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B260" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C260" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D260" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E260" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F260" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B261" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C261" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D261" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E261" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F261" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B262" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C262" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D262" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E262" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F262" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B263" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C263" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D263" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E263" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F263" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B264" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C264" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D264" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E264" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F264" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B265" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C265" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D265" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E265" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F265" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B266" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C266" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D266" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E266" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F266" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B267" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C267" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D267" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E267" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F267" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B268" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C268" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D268" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E268" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F268" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B269" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C269" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D269" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E269" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F269" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B270" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C270" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D270" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E270" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F270" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B271" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C271" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D271" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E271" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F271" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B272" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C272" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D272" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E272" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F272" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B273" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C273" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D273" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E273" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F273" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B274" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C274" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D274" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E274" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F274" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B275" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C275" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D275" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E275" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F275" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B276" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C276" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D276" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E276" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F276" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B277" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C277" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D277" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E277" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F277" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B278" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C278" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D278" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E278" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F278" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B279" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C279" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D279" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E279" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F279" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B280" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C280" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D280" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E280" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F280" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B281" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C281" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D281" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E281" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F281" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B282" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C282" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D282" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E282" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F282" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B283" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C283" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D283" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E283" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F283" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B284" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C284" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D284" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E284" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F284" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B285" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C285" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D285" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E285" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F285" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B286" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C286" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D286" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E286" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F286" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B287" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C287" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D287" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E287" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F287" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B288" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C288" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D288" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E288" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F288" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B289" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C289" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D289" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E289" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F289" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B290" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C290" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D290" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E290" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F290" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B291" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C291" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D291" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E291" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F291" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B292" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C292" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D292" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E292" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F292" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B293" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C293" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D293" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E293" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F293" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B294" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C294" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D294" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E294" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F294" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B295" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C295" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D295" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E295" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F295" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B296" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C296" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D296" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E296" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F296" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B297" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C297" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D297" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E297" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F297" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B298" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C298" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D298" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E298" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F298" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B299" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C299" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D299" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E299" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F299" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B300" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C300" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D300" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E300" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F300" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0.650565243178611</v>
+        <v>0.8449784312013369</v>
       </c>
       <c r="B301" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C301" t="n">
-        <v>118.3875</v>
+        <v>117.1625</v>
       </c>
       <c r="D301" t="n">
-        <v>48.144400000000005</v>
+        <v>2.079916666666667</v>
       </c>
       <c r="E301" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F301" t="n">
-        <v>9112.5</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/15th.xlsx
+++ b/15th.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="22">
   <si>
     <t>Fitness</t>
   </si>
@@ -32,73 +32,52 @@
     <t>Waiting time</t>
   </si>
   <si>
-    <t>[[43, 72, 28, 174, 46, 34], [7, 144, 11, 27, 116, 82, 16], [35, 162, 50, 90, 161, 13, 79]]</t>
+    <t>[[15, 120, 17, 138, 14, 34], [145, 40, 119, 142, 97, 117], [126, 64, 79, 1, 68, 25, 78]]</t>
   </si>
   <si>
-    <t>[[104, 28, 26, 32, 17, 81, 34], [110, 87, 36, 156, 80, 1, 40], [116, 41, 161, 177, 120, 19, 79]]</t>
+    <t>[[120, 89, 152, 60, 68, 148], [119, 91, 73, 70, 77, 34], [36, 72, 1, 87, 18, 71, 25]]</t>
   </si>
   <si>
-    <t>[[92, 148, 40, 123, 55, 15, 34, 79], [87, 120, 110, 45, 77, 103], [41, 18, 126, 101, 152, 136, 1]]</t>
+    <t>[[158, 41, 91, 34, 149, 70, 18], [68, 51, 55, 84, 118, 139], [1, 36, 7, 77, 4, 116, 79]]</t>
   </si>
   <si>
-    <t>[[80, 81, 40, 82, 12, 116, 79], [87, 148, 25, 29, 41, 92, 60], [125, 149, 73, 17, 77, 34, 115]]</t>
+    <t>[[145, 82, 29, 64, 122, 101], [139, 34, 150, 70, 71, 167, 25], [19, 36, 115, 134, 17, 13, 79]]</t>
   </si>
   <si>
-    <t>[[60, 36, 17, 16, 84, 64, 71], [97, 15, 81, 22, 73, 25, 1], [11, 39, 150, 79, 142, 69, 27]]</t>
+    <t>[[120, 87, 79, 82, 86, 35, 144], [15, 1, 36, 70, 89, 149, 17], [122, 40, 168, 38, 34, 28, 117]]</t>
   </si>
   <si>
-    <t>[[45, 16, 73, 17, 79, 52, 29, 34], [87, 36, 144, 15, 125, 25, 148], [120, 110, 10, 18, 38, 32, 40]]</t>
+    <t>[[1, 36, 64, 149, 144, 41, 17], [168, 38, 29, 45, 44, 71, 34], [133, 70, 15, 118, 94, 16, 79]]</t>
   </si>
   <si>
-    <t>[[61, 34, 100, 27, 120, 86, 72], [16, 73, 17, 30, 110, 68, 41], [148, 40, 79, 22, 126, 35, 36, 144]]</t>
+    <t>[[35, 168, 86, 149, 17, 13, 79], [28, 82, 34, 132, 16, 93, 1], [91, 148, 25, 70, 15, 41, 36]]</t>
   </si>
   <si>
-    <t>[[153, 17, 16, 84, 4, 149, 79], [35, 36, 81, 73, 25, 69, 72], [44, 167, 15, 34, 18, 162, 101, 41]]</t>
+    <t>[[150, 149, 15, 34, 90, 71, 17], [139, 13, 79, 35, 36, 64, 16], [11, 148, 25, 110, 18, 73, 27]]</t>
   </si>
   <si>
-    <t>[[91, 167, 15, 17, 16, 73, 25, 79], [120, 149, 1, 70, 77, 38, 44], [132, 27, 57, 148, 34, 18, 40, 36]]</t>
+    <t>[[35, 36, 29, 64, 149, 93, 79], [107, 72, 18, 71, 17, 13, 34], [25, 70, 15, 1, 148, 120, 152]]</t>
   </si>
   <si>
-    <t>[[27, 139, 36, 41, 15, 17, 34, 18], [43, 44, 167, 29, 64, 79, 16, 40], [88, 89, 148, 25, 1, 70, 87]]</t>
+    <t>[[52, 18, 162, 1, 36, 29, 64], [25, 110, 16, 86, 35, 144, 79, 34], [8, 22, 70, 15, 41, 17, 27]]</t>
   </si>
   <si>
-    <t>[[117, 86, 72, 18, 79, 16, 148, 27], [30, 110, 17, 41, 15, 70, 87], [100, 167, 29, 34, 152, 25, 1, 35]]</t>
+    <t>[[113, 150, 144, 162, 15, 1, 148], [44, 25, 110, 34, 16, 86, 149], [18, 71, 17, 27, 79, 35, 29, 36]]</t>
   </si>
   <si>
-    <t>[[162, 19, 34, 15, 17, 77, 40, 29], [44, 167, 73, 152, 79, 16, 148, 27], [90, 36, 91, 72, 18, 45, 41]]</t>
+    <t>[[19, 40, 45, 44, 25, 110, 34, 79], [125, 27, 149, 17, 87, 36, 29], [150, 70, 15, 1, 148, 77, 16]]</t>
   </si>
   <si>
-    <t>[[150, 72, 139, 36, 29, 64, 19], [45, 16, 148, 27, 18, 40, 82, 79], [55, 35, 167, 144, 15, 17, 77, 34]]</t>
+    <t>[[1, 148, 77, 27, 149, 17, 34, 79], [16, 86, 35, 29, 64, 72, 18], [28, 40, 45, 44, 25, 70, 15]]</t>
   </si>
   <si>
-    <t>[[139, 36, 17, 16, 148, 79, 93, 1], [152, 18, 40, 82, 117, 41, 15, 34], [72, 132, 100, 167, 29, 64, 19]]</t>
+    <t>[[110, 16, 40, 45, 44, 25, 70], [36, 29, 64, 72, 34, 15, 1, 79], [170, 148, 82, 18, 71, 17, 41]]</t>
   </si>
   <si>
-    <t>[[90, 36, 144, 15, 167, 29, 35, 40], [73, 17, 16, 148, 25, 1, 91, 79], [38, 120, 110, 34, 152, 87, 139]]</t>
+    <t>[[16, 40, 45, 44, 25, 110, 34, 79], [17, 41, 73, 72, 70, 15, 1], [97, 19, 36, 29, 64, 149, 27]]</t>
   </si>
   <si>
-    <t>[[92, 25, 1, 70, 77, 40, 82], [73, 17, 16, 148, 79, 93, 149, 34], [145, 15, 35, 167, 29, 36, 144, 27]]</t>
-  </si>
-  <si>
-    <t>[[45, 29, 64, 19, 34, 15, 35, 40], [113, 147, 148, 25, 1, 17, 16, 79], [91, 72, 139, 36, 144, 120, 27]]</t>
-  </si>
-  <si>
-    <t>[[93, 34, 15, 70, 40, 29, 41, 18], [110, 17, 36, 144, 120, 86, 72], [102, 132, 79, 16, 148, 25, 1, 167]]</t>
-  </si>
-  <si>
-    <t>[[44, 167, 29, 36, 144, 120, 110, 79], [81, 18, 38, 35, 40, 82, 117, 34], [73, 25, 1, 17, 16, 148, 27, 15]]</t>
-  </si>
-  <si>
-    <t>[[84, 64, 19, 27, 79, 18, 45, 34], [13, 17, 16, 148, 25, 1, 40, 36], [44, 167, 29, 41, 15, 35, 144, 120]]</t>
-  </si>
-  <si>
-    <t>[[102, 144, 36, 29, 64, 44, 167, 79], [15, 35, 40, 82, 17, 16, 148, 25], [19, 34, 18, 45, 41, 101, 117, 27]]</t>
-  </si>
-  <si>
-    <t>[[101, 117, 44, 167, 29, 64, 19, 34], [17, 16, 148, 25, 1, 27, 139, 36], [149, 77, 40, 41, 15, 35, 79, 18]]</t>
-  </si>
-  <si>
-    <t>[[19, 40, 82, 17, 16, 148, 25, 1], [36, 29, 64, 44, 167, 73, 41, 79], [18, 34, 15, 35, 144, 120, 110, 27]]</t>
+    <t>[[19, 40, 79, 27, 16, 93, 41, 35], [68, 44, 25, 70, 36, 29, 64], [18, 17, 87, 15, 1, 148, 34, 144]]</t>
   </si>
 </sst>
 </file>
@@ -171,19 +150,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9386182071973697</v>
+        <v>0.8307493745371486</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>98.04999999999998</v>
+        <v>4.8842105263157904</v>
       </c>
       <c r="D2" t="n">
-        <v>3.1125</v>
+        <v>57.74999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -191,19 +170,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9386182071973697</v>
+        <v>0.8149648542485946</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>98.04999999999998</v>
+        <v>5.144736842105263</v>
       </c>
       <c r="D3" t="n">
-        <v>3.1125</v>
+        <v>64.1</v>
       </c>
       <c r="E3" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -211,19 +190,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9168603923748566</v>
+        <v>0.8149648542485946</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>102.1125</v>
+        <v>5.144736842105263</v>
       </c>
       <c r="D4" t="n">
-        <v>2.778571428571429</v>
+        <v>64.1</v>
       </c>
       <c r="E4" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="F4" t="n">
         <v>0.0</v>
@@ -231,19 +210,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9168603923748566</v>
+        <v>0.8149648542485946</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>102.1125</v>
+        <v>5.144736842105263</v>
       </c>
       <c r="D5" t="n">
-        <v>2.778571428571429</v>
+        <v>64.1</v>
       </c>
       <c r="E5" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -251,19 +230,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9168603923748566</v>
+        <v>0.8149648542485946</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>102.1125</v>
+        <v>5.144736842105263</v>
       </c>
       <c r="D6" t="n">
-        <v>2.778571428571429</v>
+        <v>64.1</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="F6" t="n">
         <v>0.0</v>
@@ -271,19 +250,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9168603923748566</v>
+        <v>0.8149648542485946</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>102.1125</v>
+        <v>5.144736842105263</v>
       </c>
       <c r="D7" t="n">
-        <v>2.778571428571429</v>
+        <v>64.1</v>
       </c>
       <c r="E7" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
@@ -291,19 +270,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9168603923748566</v>
+        <v>0.8149648542485946</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>102.1125</v>
+        <v>5.144736842105263</v>
       </c>
       <c r="D8" t="n">
-        <v>2.778571428571429</v>
+        <v>64.1</v>
       </c>
       <c r="E8" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="F8" t="n">
         <v>0.0</v>
@@ -311,19 +290,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9168603923748566</v>
+        <v>0.8149648542485946</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>102.1125</v>
+        <v>5.144736842105263</v>
       </c>
       <c r="D9" t="n">
-        <v>2.778571428571429</v>
+        <v>64.1</v>
       </c>
       <c r="E9" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="F9" t="n">
         <v>0.0</v>
@@ -331,19 +310,19 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9168603923748566</v>
+        <v>0.8149648542485946</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>102.1125</v>
+        <v>5.144736842105263</v>
       </c>
       <c r="D10" t="n">
-        <v>2.778571428571429</v>
+        <v>64.1</v>
       </c>
       <c r="E10" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
@@ -351,19 +330,19 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9168603923748566</v>
+        <v>0.8149648542485946</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>102.1125</v>
+        <v>5.144736842105263</v>
       </c>
       <c r="D11" t="n">
-        <v>2.778571428571429</v>
+        <v>64.1</v>
       </c>
       <c r="E11" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="F11" t="n">
         <v>0.0</v>
@@ -371,19 +350,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9168603923748566</v>
+        <v>0.8149648542485946</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>102.1125</v>
+        <v>5.144736842105263</v>
       </c>
       <c r="D12" t="n">
-        <v>2.778571428571429</v>
+        <v>64.1</v>
       </c>
       <c r="E12" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="F12" t="n">
         <v>0.0</v>
@@ -391,19 +370,19 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9168603923748566</v>
+        <v>0.8149648542485946</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>102.1125</v>
+        <v>5.144736842105263</v>
       </c>
       <c r="D13" t="n">
-        <v>2.778571428571429</v>
+        <v>64.1</v>
       </c>
       <c r="E13" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="F13" t="n">
         <v>0.0</v>
@@ -411,19 +390,19 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9168603923748566</v>
+        <v>0.8149648542485946</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>102.1125</v>
+        <v>5.144736842105263</v>
       </c>
       <c r="D14" t="n">
-        <v>2.778571428571429</v>
+        <v>64.1</v>
       </c>
       <c r="E14" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="F14" t="n">
         <v>0.0</v>
@@ -431,19 +410,19 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9168603923748566</v>
+        <v>0.8127831088305416</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>102.1125</v>
+        <v>4.94375</v>
       </c>
       <c r="D15" t="n">
-        <v>2.778571428571429</v>
+        <v>45.00000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="F15" t="n">
         <v>0.0</v>
@@ -451,19 +430,19 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9168603923748566</v>
+        <v>0.8127831088305416</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>102.1125</v>
+        <v>4.94375</v>
       </c>
       <c r="D16" t="n">
-        <v>2.778571428571429</v>
+        <v>45.00000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="F16" t="n">
         <v>0.0</v>
@@ -471,19 +450,19 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9121708501694666</v>
+        <v>0.8127831088305416</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>104.12499999999999</v>
+        <v>4.94375</v>
       </c>
       <c r="D17" t="n">
-        <v>4.673809523809524</v>
+        <v>45.00000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="F17" t="n">
         <v>0.0</v>
@@ -491,19 +470,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9121708501694666</v>
+        <v>0.8127831088305416</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>104.12499999999999</v>
+        <v>4.94375</v>
       </c>
       <c r="D18" t="n">
-        <v>4.673809523809524</v>
+        <v>45.00000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="F18" t="n">
         <v>0.0</v>
@@ -511,19 +490,19 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9121708501694666</v>
+        <v>0.8127831088305416</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>104.12499999999999</v>
+        <v>4.94375</v>
       </c>
       <c r="D19" t="n">
-        <v>4.673809523809524</v>
+        <v>45.00000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="F19" t="n">
         <v>0.0</v>
@@ -531,19 +510,19 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9121708501694666</v>
+        <v>0.8069472456249379</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>104.12499999999999</v>
+        <v>5.038124999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>4.673809523809524</v>
+        <v>77.36999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="F20" t="n">
         <v>0.0</v>
@@ -551,19 +530,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9102542982429257</v>
+        <v>0.8069472456249379</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>104.94999999999999</v>
+        <v>5.038124999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>2.8023809523809526</v>
+        <v>77.36999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="F21" t="n">
         <v>0.0</v>
@@ -571,19 +550,19 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9079937334661048</v>
+        <v>0.8069472456249379</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>105.925</v>
+        <v>5.038124999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>2.143333333333334</v>
+        <v>77.36999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="F22" t="n">
         <v>0.0</v>
@@ -591,19 +570,19 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.895156701654176</v>
+        <v>0.8022019695376837</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>106.1625</v>
+        <v>4.887499999999998</v>
       </c>
       <c r="D23" t="n">
-        <v>2.2000000000000006</v>
+        <v>71.38999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F23" t="n">
         <v>0.0</v>
@@ -611,19 +590,19 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.8899188073923037</v>
+        <v>0.7994027711495855</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>108.39999999999998</v>
+        <v>4.931547619047619</v>
       </c>
       <c r="D24" t="n">
-        <v>2.1772727272727272</v>
+        <v>86.55</v>
       </c>
       <c r="E24" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F24" t="n">
         <v>0.0</v>
@@ -631,99 +610,99 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.8886934919146738</v>
+        <v>0.7916941290927344</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>108.925</v>
+        <v>5.057738095238095</v>
       </c>
       <c r="D25" t="n">
-        <v>2.6136363636363638</v>
+        <v>53.15</v>
       </c>
       <c r="E25" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.8676290506466134</v>
+        <v>0.7916941290927344</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C26" t="n">
-        <v>112.69999999999999</v>
+        <v>5.057738095238095</v>
       </c>
       <c r="D26" t="n">
-        <v>2.8400000000000003</v>
+        <v>53.15</v>
       </c>
       <c r="E26" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.8676290506466134</v>
+        <v>0.7916941290927344</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C27" t="n">
-        <v>112.69999999999999</v>
+        <v>5.057738095238095</v>
       </c>
       <c r="D27" t="n">
-        <v>2.8400000000000003</v>
+        <v>53.15</v>
       </c>
       <c r="E27" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8676290506466134</v>
+        <v>0.7916941290927344</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C28" t="n">
-        <v>112.69999999999999</v>
+        <v>5.057738095238095</v>
       </c>
       <c r="D28" t="n">
-        <v>2.8400000000000003</v>
+        <v>53.15</v>
       </c>
       <c r="E28" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8676290506466134</v>
+        <v>0.7900872883121435</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" t="n">
-        <v>112.69999999999999</v>
+        <v>5.079761904761906</v>
       </c>
       <c r="D29" t="n">
-        <v>2.8400000000000003</v>
+        <v>57.45</v>
       </c>
       <c r="E29" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="F29" t="n">
         <v>0.0</v>
@@ -731,19 +710,19 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8676290506466134</v>
+        <v>0.7900872883121435</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" t="n">
-        <v>112.69999999999999</v>
+        <v>5.079761904761906</v>
       </c>
       <c r="D30" t="n">
-        <v>2.8400000000000003</v>
+        <v>57.45</v>
       </c>
       <c r="E30" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="F30" t="n">
         <v>0.0</v>
@@ -751,19 +730,19 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.8676290506466134</v>
+        <v>0.7879785731379632</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
       </c>
       <c r="C31" t="n">
-        <v>112.69999999999999</v>
+        <v>5.113690476190475</v>
       </c>
       <c r="D31" t="n">
-        <v>2.8400000000000003</v>
+        <v>49.04999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -771,19 +750,19 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.8676290506466134</v>
+        <v>0.7879785731379632</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
       </c>
       <c r="C32" t="n">
-        <v>112.69999999999999</v>
+        <v>5.113690476190475</v>
       </c>
       <c r="D32" t="n">
-        <v>2.8400000000000003</v>
+        <v>49.04999999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="F32" t="n">
         <v>0.0</v>
@@ -791,19 +770,19 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.8676290506466134</v>
+        <v>0.7879785731379632</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
       </c>
       <c r="C33" t="n">
-        <v>112.69999999999999</v>
+        <v>5.113690476190475</v>
       </c>
       <c r="D33" t="n">
-        <v>2.8400000000000003</v>
+        <v>49.04999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="F33" t="n">
         <v>0.0</v>
@@ -811,19 +790,19 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.8676290506466134</v>
+        <v>0.7879785731379632</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
       </c>
       <c r="C34" t="n">
-        <v>112.69999999999999</v>
+        <v>5.113690476190475</v>
       </c>
       <c r="D34" t="n">
-        <v>2.8400000000000003</v>
+        <v>49.04999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="F34" t="n">
         <v>0.0</v>
@@ -831,19 +810,19 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8669841735889957</v>
+        <v>0.7879785731379632</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" t="n">
-        <v>112.975</v>
+        <v>5.113690476190475</v>
       </c>
       <c r="D35" t="n">
-        <v>2.5478260869565217</v>
+        <v>49.04999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="F35" t="n">
         <v>0.0</v>
@@ -851,19 +830,19 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8669841735889957</v>
+        <v>0.7879785731379632</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" t="n">
-        <v>112.975</v>
+        <v>5.113690476190475</v>
       </c>
       <c r="D36" t="n">
-        <v>2.5478260869565217</v>
+        <v>49.04999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="F36" t="n">
         <v>0.0</v>
@@ -871,19 +850,19 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.8669841735889957</v>
+        <v>0.7879785731379632</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" t="n">
-        <v>112.975</v>
+        <v>5.113690476190475</v>
       </c>
       <c r="D37" t="n">
-        <v>2.5478260869565217</v>
+        <v>49.04999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="F37" t="n">
         <v>0.0</v>
@@ -891,19 +870,19 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.8664861286322249</v>
+        <v>0.7866933750641876</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38" t="n">
-        <v>113.18749999999997</v>
+        <v>4.9119318181818175</v>
       </c>
       <c r="D38" t="n">
-        <v>2.4086956521739133</v>
+        <v>63.050000000000004</v>
       </c>
       <c r="E38" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F38" t="n">
         <v>0.0</v>
@@ -911,19 +890,19 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.8664861286322249</v>
+        <v>0.7866933750641876</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" t="n">
-        <v>113.18749999999997</v>
+        <v>4.9119318181818175</v>
       </c>
       <c r="D39" t="n">
-        <v>2.4086956521739133</v>
+        <v>63.050000000000004</v>
       </c>
       <c r="E39" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F39" t="n">
         <v>0.0</v>
@@ -931,19 +910,19 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.8664861286322249</v>
+        <v>0.7866933750641876</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" t="n">
-        <v>113.18749999999997</v>
+        <v>4.9119318181818175</v>
       </c>
       <c r="D40" t="n">
-        <v>2.4086956521739133</v>
+        <v>63.050000000000004</v>
       </c>
       <c r="E40" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F40" t="n">
         <v>0.0</v>
@@ -951,19 +930,19 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.8654907447365978</v>
+        <v>0.7866933750641876</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C41" t="n">
-        <v>113.61249999999998</v>
+        <v>4.9119318181818175</v>
       </c>
       <c r="D41" t="n">
-        <v>2.66304347826087</v>
+        <v>63.050000000000004</v>
       </c>
       <c r="E41" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F41" t="n">
         <v>0.0</v>
@@ -971,19 +950,19 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.8654907447365978</v>
+        <v>0.7834689164396307</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" t="n">
-        <v>113.61249999999998</v>
+        <v>4.961931818181818</v>
       </c>
       <c r="D42" t="n">
-        <v>2.66304347826087</v>
+        <v>65.2</v>
       </c>
       <c r="E42" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F42" t="n">
         <v>0.0</v>
@@ -991,19 +970,19 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.8654907447365978</v>
+        <v>0.7834689164396307</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" t="n">
-        <v>113.61249999999998</v>
+        <v>4.961931818181818</v>
       </c>
       <c r="D43" t="n">
-        <v>2.66304347826087</v>
+        <v>65.2</v>
       </c>
       <c r="E43" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F43" t="n">
         <v>0.0</v>
@@ -1011,19 +990,19 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.8651981634234313</v>
+        <v>0.7805897294810683</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44" t="n">
-        <v>113.73749999999997</v>
+        <v>5.006818181818182</v>
       </c>
       <c r="D44" t="n">
-        <v>2.3021739130434784</v>
+        <v>56.53800000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F44" t="n">
         <v>0.0</v>
@@ -1031,19 +1010,19 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.8651981634234313</v>
+        <v>0.7805897294810683</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C45" t="n">
-        <v>113.73749999999997</v>
+        <v>5.006818181818182</v>
       </c>
       <c r="D45" t="n">
-        <v>2.3021739130434784</v>
+        <v>56.53800000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F45" t="n">
         <v>0.0</v>
@@ -1051,19 +1030,19 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.8648179309508713</v>
+        <v>0.7805897294810683</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C46" t="n">
-        <v>113.9</v>
+        <v>5.006818181818182</v>
       </c>
       <c r="D46" t="n">
-        <v>2.5978260869565215</v>
+        <v>56.53800000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F46" t="n">
         <v>0.0</v>
@@ -1071,19 +1050,19 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.8648179309508713</v>
+        <v>0.7805897294810683</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C47" t="n">
-        <v>113.9</v>
+        <v>5.006818181818182</v>
       </c>
       <c r="D47" t="n">
-        <v>2.5978260869565215</v>
+        <v>56.53800000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F47" t="n">
         <v>0.0</v>
@@ -1091,19 +1070,19 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.8646717238727336</v>
+        <v>0.7805897294810683</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C48" t="n">
-        <v>113.96249999999998</v>
+        <v>5.006818181818182</v>
       </c>
       <c r="D48" t="n">
-        <v>2.3065217391304342</v>
+        <v>56.53800000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F48" t="n">
         <v>0.0</v>
@@ -1111,19 +1090,19 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.8646717238727336</v>
+        <v>0.7805897294810683</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C49" t="n">
-        <v>113.96249999999998</v>
+        <v>5.006818181818182</v>
       </c>
       <c r="D49" t="n">
-        <v>2.3065217391304342</v>
+        <v>56.53800000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F49" t="n">
         <v>0.0</v>
@@ -1131,19 +1110,19 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.8646132463914393</v>
+        <v>0.7805897294810683</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C50" t="n">
-        <v>113.98749999999998</v>
+        <v>5.006818181818182</v>
       </c>
       <c r="D50" t="n">
-        <v>1.873913043478261</v>
+        <v>56.53800000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F50" t="n">
         <v>0.0</v>
@@ -1151,19 +1130,19 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.8646132463914393</v>
+        <v>0.7805897294810683</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C51" t="n">
-        <v>113.98749999999998</v>
+        <v>5.006818181818182</v>
       </c>
       <c r="D51" t="n">
-        <v>1.873913043478261</v>
+        <v>56.53800000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F51" t="n">
         <v>0.0</v>
@@ -1171,19 +1150,19 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.8636196402307121</v>
+        <v>0.7805897294810683</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C52" t="n">
-        <v>114.4125</v>
+        <v>5.006818181818182</v>
       </c>
       <c r="D52" t="n">
-        <v>2.1913043478260867</v>
+        <v>56.53800000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F52" t="n">
         <v>0.0</v>
@@ -1191,19 +1170,19 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.8636196402307121</v>
+        <v>0.7805897294810683</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C53" t="n">
-        <v>114.4125</v>
+        <v>5.006818181818182</v>
       </c>
       <c r="D53" t="n">
-        <v>2.1913043478260867</v>
+        <v>56.53800000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F53" t="n">
         <v>0.0</v>
@@ -1211,19 +1190,19 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.8617227433245754</v>
+        <v>0.7793552771691449</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C54" t="n">
-        <v>115.22500000000001</v>
+        <v>5.026136363636364</v>
       </c>
       <c r="D54" t="n">
-        <v>2.5695652173913044</v>
+        <v>52.6</v>
       </c>
       <c r="E54" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F54" t="n">
         <v>0.0</v>
@@ -1231,19 +1210,19 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.8481635329937105</v>
+        <v>0.7793552771691449</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C55" t="n">
-        <v>115.81249999999999</v>
+        <v>5.026136363636364</v>
       </c>
       <c r="D55" t="n">
-        <v>2.2435</v>
+        <v>52.6</v>
       </c>
       <c r="E55" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F55" t="n">
         <v>0.0</v>
@@ -1251,19 +1230,19 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.8481635329937105</v>
+        <v>0.7793552771691449</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C56" t="n">
-        <v>115.81249999999999</v>
+        <v>5.026136363636364</v>
       </c>
       <c r="D56" t="n">
-        <v>2.2435</v>
+        <v>52.6</v>
       </c>
       <c r="E56" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F56" t="n">
         <v>0.0</v>
@@ -1271,19 +1250,19 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.8481635329937105</v>
+        <v>0.7793552771691449</v>
       </c>
       <c r="B57" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C57" t="n">
-        <v>115.81249999999999</v>
+        <v>5.026136363636364</v>
       </c>
       <c r="D57" t="n">
-        <v>2.2435</v>
+        <v>52.6</v>
       </c>
       <c r="E57" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F57" t="n">
         <v>0.0</v>
@@ -1291,19 +1270,19 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.8481635329937105</v>
+        <v>0.7793552771691449</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C58" t="n">
-        <v>115.81249999999999</v>
+        <v>5.026136363636364</v>
       </c>
       <c r="D58" t="n">
-        <v>2.2435</v>
+        <v>52.6</v>
       </c>
       <c r="E58" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F58" t="n">
         <v>0.0</v>
@@ -1311,19 +1290,19 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.8481635329937105</v>
+        <v>0.7793552771691449</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C59" t="n">
-        <v>115.81249999999999</v>
+        <v>5.026136363636364</v>
       </c>
       <c r="D59" t="n">
-        <v>2.2435</v>
+        <v>52.6</v>
       </c>
       <c r="E59" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F59" t="n">
         <v>0.0</v>
@@ -1331,19 +1310,19 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.8481635329937105</v>
+        <v>0.7793552771691449</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C60" t="n">
-        <v>115.81249999999999</v>
+        <v>5.026136363636364</v>
       </c>
       <c r="D60" t="n">
-        <v>2.2435</v>
+        <v>52.6</v>
       </c>
       <c r="E60" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F60" t="n">
         <v>0.0</v>
@@ -1351,19 +1330,19 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.8481635329937105</v>
+        <v>0.7793552771691449</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C61" t="n">
-        <v>115.81249999999999</v>
+        <v>5.026136363636364</v>
       </c>
       <c r="D61" t="n">
-        <v>2.2435</v>
+        <v>52.6</v>
       </c>
       <c r="E61" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F61" t="n">
         <v>0.0</v>
@@ -1371,19 +1350,19 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.8481635329937105</v>
+        <v>0.7793552771691449</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C62" t="n">
-        <v>115.81249999999999</v>
+        <v>5.026136363636364</v>
       </c>
       <c r="D62" t="n">
-        <v>2.2435</v>
+        <v>52.6</v>
       </c>
       <c r="E62" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F62" t="n">
         <v>0.0</v>
@@ -1391,19 +1370,19 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.8481635329937105</v>
+        <v>0.7793552771691449</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C63" t="n">
-        <v>115.81249999999999</v>
+        <v>5.026136363636364</v>
       </c>
       <c r="D63" t="n">
-        <v>2.2435</v>
+        <v>52.6</v>
       </c>
       <c r="E63" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F63" t="n">
         <v>0.0</v>
@@ -1411,19 +1390,19 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.8481635329937105</v>
+        <v>0.7793552771691449</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C64" t="n">
-        <v>115.81249999999999</v>
+        <v>5.026136363636364</v>
       </c>
       <c r="D64" t="n">
-        <v>2.2435</v>
+        <v>52.6</v>
       </c>
       <c r="E64" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F64" t="n">
         <v>0.0</v>
@@ -1431,19 +1410,19 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.8481635329937105</v>
+        <v>0.7793552771691449</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C65" t="n">
-        <v>115.81249999999999</v>
+        <v>5.026136363636364</v>
       </c>
       <c r="D65" t="n">
-        <v>2.2435</v>
+        <v>52.6</v>
       </c>
       <c r="E65" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F65" t="n">
         <v>0.0</v>
@@ -1451,19 +1430,19 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.8481635329937105</v>
+        <v>0.7793552771691449</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C66" t="n">
-        <v>115.81249999999999</v>
+        <v>5.026136363636364</v>
       </c>
       <c r="D66" t="n">
-        <v>2.2435</v>
+        <v>52.6</v>
       </c>
       <c r="E66" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F66" t="n">
         <v>0.0</v>
@@ -1471,19 +1450,19 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.8481635329937105</v>
+        <v>0.7793552771691449</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C67" t="n">
-        <v>115.81249999999999</v>
+        <v>5.026136363636364</v>
       </c>
       <c r="D67" t="n">
-        <v>2.2435</v>
+        <v>52.6</v>
       </c>
       <c r="E67" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F67" t="n">
         <v>0.0</v>
@@ -1491,19 +1470,19 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.8481635329937105</v>
+        <v>0.7793552771691449</v>
       </c>
       <c r="B68" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C68" t="n">
-        <v>115.81249999999999</v>
+        <v>5.026136363636364</v>
       </c>
       <c r="D68" t="n">
-        <v>2.2435</v>
+        <v>52.6</v>
       </c>
       <c r="E68" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F68" t="n">
         <v>0.0</v>
@@ -1511,19 +1490,19 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.8481635329937105</v>
+        <v>0.7793552771691449</v>
       </c>
       <c r="B69" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C69" t="n">
-        <v>115.81249999999999</v>
+        <v>5.026136363636364</v>
       </c>
       <c r="D69" t="n">
-        <v>2.2435</v>
+        <v>52.6</v>
       </c>
       <c r="E69" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F69" t="n">
         <v>0.0</v>
@@ -1531,19 +1510,19 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.8481635329937105</v>
+        <v>0.7793552771691449</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C70" t="n">
-        <v>115.81249999999999</v>
+        <v>5.026136363636364</v>
       </c>
       <c r="D70" t="n">
-        <v>2.2435</v>
+        <v>52.6</v>
       </c>
       <c r="E70" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F70" t="n">
         <v>0.0</v>
@@ -1551,19 +1530,19 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.8481635329937105</v>
+        <v>0.7793552771691449</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C71" t="n">
-        <v>115.81249999999999</v>
+        <v>5.026136363636364</v>
       </c>
       <c r="D71" t="n">
-        <v>2.2435</v>
+        <v>52.6</v>
       </c>
       <c r="E71" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F71" t="n">
         <v>0.0</v>
@@ -1571,19 +1550,19 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.8479272737825884</v>
+        <v>0.7793552771691449</v>
       </c>
       <c r="B72" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C72" t="n">
-        <v>115.9125</v>
+        <v>5.026136363636364</v>
       </c>
       <c r="D72" t="n">
-        <v>2.8333333333333335</v>
+        <v>52.6</v>
       </c>
       <c r="E72" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F72" t="n">
         <v>0.0</v>
@@ -1591,19 +1570,19 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.8479272737825884</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B73" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C73" t="n">
-        <v>115.9125</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D73" t="n">
-        <v>2.8333333333333335</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E73" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F73" t="n">
         <v>0.0</v>
@@ -1611,19 +1590,19 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.8479272737825884</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B74" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C74" t="n">
-        <v>115.9125</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D74" t="n">
-        <v>2.8333333333333335</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E74" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F74" t="n">
         <v>0.0</v>
@@ -1631,19 +1610,19 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.8479272737825884</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B75" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C75" t="n">
-        <v>115.9125</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D75" t="n">
-        <v>2.8333333333333335</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E75" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F75" t="n">
         <v>0.0</v>
@@ -1651,19 +1630,19 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.8479272737825884</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C76" t="n">
-        <v>115.9125</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D76" t="n">
-        <v>2.8333333333333335</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E76" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F76" t="n">
         <v>0.0</v>
@@ -1671,19 +1650,19 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.8479272737825884</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B77" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C77" t="n">
-        <v>115.9125</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D77" t="n">
-        <v>2.8333333333333335</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E77" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F77" t="n">
         <v>0.0</v>
@@ -1691,19 +1670,19 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.8479272737825884</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C78" t="n">
-        <v>115.9125</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D78" t="n">
-        <v>2.8333333333333335</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E78" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F78" t="n">
         <v>0.0</v>
@@ -1711,19 +1690,19 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.8479272737825884</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B79" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C79" t="n">
-        <v>115.9125</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D79" t="n">
-        <v>2.8333333333333335</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E79" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F79" t="n">
         <v>0.0</v>
@@ -1731,19 +1710,19 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.8479272737825884</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B80" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C80" t="n">
-        <v>115.9125</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D80" t="n">
-        <v>2.8333333333333335</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E80" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F80" t="n">
         <v>0.0</v>
@@ -1751,19 +1730,19 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.8475434611668592</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C81" t="n">
-        <v>116.07500000000002</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D81" t="n">
-        <v>2.1645833333333333</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E81" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F81" t="n">
         <v>0.0</v>
@@ -1771,19 +1750,19 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.8475434611668592</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C82" t="n">
-        <v>116.07500000000002</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D82" t="n">
-        <v>2.1645833333333333</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E82" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F82" t="n">
         <v>0.0</v>
@@ -1791,19 +1770,19 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.8475434611668592</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C83" t="n">
-        <v>116.07500000000002</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D83" t="n">
-        <v>2.1645833333333333</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E83" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F83" t="n">
         <v>0.0</v>
@@ -1811,19 +1790,19 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.8475434611668592</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B84" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C84" t="n">
-        <v>116.07500000000002</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D84" t="n">
-        <v>2.1645833333333333</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E84" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F84" t="n">
         <v>0.0</v>
@@ -1831,19 +1810,19 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.8475434611668592</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B85" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C85" t="n">
-        <v>116.07500000000002</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D85" t="n">
-        <v>2.1645833333333333</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E85" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F85" t="n">
         <v>0.0</v>
@@ -1851,19 +1830,19 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.8475434611668592</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C86" t="n">
-        <v>116.07500000000002</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D86" t="n">
-        <v>2.1645833333333333</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E86" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F86" t="n">
         <v>0.0</v>
@@ -1871,19 +1850,19 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.8475434611668592</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C87" t="n">
-        <v>116.07500000000002</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D87" t="n">
-        <v>2.1645833333333333</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E87" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F87" t="n">
         <v>0.0</v>
@@ -1891,19 +1870,19 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.8475434611668592</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B88" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C88" t="n">
-        <v>116.07500000000002</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D88" t="n">
-        <v>2.1645833333333333</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E88" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F88" t="n">
         <v>0.0</v>
@@ -1911,19 +1890,19 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.8475434611668592</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C89" t="n">
-        <v>116.07500000000002</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D89" t="n">
-        <v>2.1645833333333333</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E89" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F89" t="n">
         <v>0.0</v>
@@ -1931,19 +1910,19 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.8475434611668592</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C90" t="n">
-        <v>116.07500000000002</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D90" t="n">
-        <v>2.1645833333333333</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E90" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F90" t="n">
         <v>0.0</v>
@@ -1951,19 +1930,19 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.8475434611668592</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B91" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C91" t="n">
-        <v>116.07500000000002</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D91" t="n">
-        <v>2.1645833333333333</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E91" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F91" t="n">
         <v>0.0</v>
@@ -1971,19 +1950,19 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.8475434611668592</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B92" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C92" t="n">
-        <v>116.07500000000002</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D92" t="n">
-        <v>2.1645833333333333</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E92" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F92" t="n">
         <v>0.0</v>
@@ -1991,19 +1970,19 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.8475434611668592</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B93" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C93" t="n">
-        <v>116.07500000000002</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D93" t="n">
-        <v>2.1645833333333333</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E93" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F93" t="n">
         <v>0.0</v>
@@ -2011,19 +1990,19 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.8475434611668592</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C94" t="n">
-        <v>116.07500000000002</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D94" t="n">
-        <v>2.1645833333333333</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E94" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F94" t="n">
         <v>0.0</v>
@@ -2031,19 +2010,19 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.8475434611668592</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B95" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C95" t="n">
-        <v>116.07500000000002</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D95" t="n">
-        <v>2.1645833333333333</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E95" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F95" t="n">
         <v>0.0</v>
@@ -2051,19 +2030,19 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.8475434611668592</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B96" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C96" t="n">
-        <v>116.07500000000002</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D96" t="n">
-        <v>2.1645833333333333</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E96" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F96" t="n">
         <v>0.0</v>
@@ -2071,19 +2050,19 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.8475434611668592</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B97" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C97" t="n">
-        <v>116.07500000000002</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D97" t="n">
-        <v>2.1645833333333333</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E97" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F97" t="n">
         <v>0.0</v>
@@ -2091,19 +2070,19 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B98" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C98" t="n">
-        <v>117.0625</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D98" t="n">
-        <v>2.422916666666667</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E98" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F98" t="n">
         <v>0.0</v>
@@ -2111,19 +2090,19 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B99" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C99" t="n">
-        <v>117.0625</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D99" t="n">
-        <v>2.422916666666667</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E99" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F99" t="n">
         <v>0.0</v>
@@ -2131,19 +2110,19 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B100" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C100" t="n">
-        <v>117.0625</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D100" t="n">
-        <v>2.422916666666667</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E100" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F100" t="n">
         <v>0.0</v>
@@ -2151,19 +2130,19 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B101" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C101" t="n">
-        <v>117.0625</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D101" t="n">
-        <v>2.422916666666667</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E101" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F101" t="n">
         <v>0.0</v>
@@ -2171,19 +2150,19 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B102" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C102" t="n">
-        <v>117.0625</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D102" t="n">
-        <v>2.422916666666667</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E102" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F102" t="n">
         <v>0.0</v>
@@ -2191,19 +2170,19 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B103" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C103" t="n">
-        <v>117.0625</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D103" t="n">
-        <v>2.422916666666667</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E103" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F103" t="n">
         <v>0.0</v>
@@ -2211,19 +2190,19 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B104" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C104" t="n">
-        <v>117.0625</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D104" t="n">
-        <v>2.422916666666667</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E104" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F104" t="n">
         <v>0.0</v>
@@ -2231,19 +2210,19 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B105" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C105" t="n">
-        <v>117.0625</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D105" t="n">
-        <v>2.422916666666667</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E105" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F105" t="n">
         <v>0.0</v>
@@ -2251,19 +2230,19 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B106" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C106" t="n">
-        <v>117.0625</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D106" t="n">
-        <v>2.422916666666667</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E106" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F106" t="n">
         <v>0.0</v>
@@ -2271,19 +2250,19 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B107" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C107" t="n">
-        <v>117.0625</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D107" t="n">
-        <v>2.422916666666667</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E107" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F107" t="n">
         <v>0.0</v>
@@ -2291,19 +2270,19 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B108" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C108" t="n">
-        <v>117.0625</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D108" t="n">
-        <v>2.422916666666667</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E108" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F108" t="n">
         <v>0.0</v>
@@ -2311,19 +2290,19 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B109" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C109" t="n">
-        <v>117.0625</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D109" t="n">
-        <v>2.422916666666667</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E109" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F109" t="n">
         <v>0.0</v>
@@ -2331,19 +2310,19 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B110" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C110" t="n">
-        <v>117.0625</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D110" t="n">
-        <v>2.422916666666667</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E110" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F110" t="n">
         <v>0.0</v>
@@ -2351,19 +2330,19 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B111" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C111" t="n">
-        <v>117.0625</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D111" t="n">
-        <v>2.422916666666667</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E111" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F111" t="n">
         <v>0.0</v>
@@ -2371,19 +2350,19 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B112" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C112" t="n">
-        <v>117.0625</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D112" t="n">
-        <v>2.422916666666667</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E112" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F112" t="n">
         <v>0.0</v>
@@ -2391,19 +2370,19 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B113" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C113" t="n">
-        <v>117.0625</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D113" t="n">
-        <v>2.422916666666667</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E113" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F113" t="n">
         <v>0.0</v>
@@ -2411,19 +2390,19 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B114" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C114" t="n">
-        <v>117.0625</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D114" t="n">
-        <v>2.422916666666667</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E114" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F114" t="n">
         <v>0.0</v>
@@ -2431,19 +2410,19 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7789206834877925</v>
       </c>
       <c r="B115" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C115" t="n">
-        <v>117.0625</v>
+        <v>5.032954545454546</v>
       </c>
       <c r="D115" t="n">
-        <v>2.422916666666667</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="E115" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F115" t="n">
         <v>0.0</v>
@@ -2451,19 +2430,19 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B116" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C116" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D116" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E116" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F116" t="n">
         <v>0.0</v>
@@ -2471,19 +2450,19 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B117" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C117" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D117" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E117" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F117" t="n">
         <v>0.0</v>
@@ -2491,19 +2470,19 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B118" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C118" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D118" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E118" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F118" t="n">
         <v>0.0</v>
@@ -2511,19 +2490,19 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B119" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C119" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D119" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E119" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F119" t="n">
         <v>0.0</v>
@@ -2531,19 +2510,19 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B120" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C120" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D120" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E120" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F120" t="n">
         <v>0.0</v>
@@ -2551,19 +2530,19 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B121" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C121" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D121" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E121" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F121" t="n">
         <v>0.0</v>
@@ -2571,19 +2550,19 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B122" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C122" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D122" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E122" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F122" t="n">
         <v>0.0</v>
@@ -2591,19 +2570,19 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B123" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C123" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D123" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E123" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F123" t="n">
         <v>0.0</v>
@@ -2611,19 +2590,19 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B124" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C124" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D124" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E124" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F124" t="n">
         <v>0.0</v>
@@ -2631,19 +2610,19 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B125" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C125" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D125" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E125" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F125" t="n">
         <v>0.0</v>
@@ -2651,19 +2630,19 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B126" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C126" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D126" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E126" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F126" t="n">
         <v>0.0</v>
@@ -2671,19 +2650,19 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B127" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C127" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D127" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E127" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F127" t="n">
         <v>0.0</v>
@@ -2691,19 +2670,19 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B128" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C128" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D128" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E128" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F128" t="n">
         <v>0.0</v>
@@ -2711,19 +2690,19 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B129" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C129" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D129" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E129" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F129" t="n">
         <v>0.0</v>
@@ -2731,19 +2710,19 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B130" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C130" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D130" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E130" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F130" t="n">
         <v>0.0</v>
@@ -2751,19 +2730,19 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B131" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C131" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D131" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E131" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F131" t="n">
         <v>0.0</v>
@@ -2771,19 +2750,19 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B132" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C132" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D132" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E132" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F132" t="n">
         <v>0.0</v>
@@ -2791,19 +2770,19 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B133" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C133" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D133" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E133" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F133" t="n">
         <v>0.0</v>
@@ -2811,19 +2790,19 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B134" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C134" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D134" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E134" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F134" t="n">
         <v>0.0</v>
@@ -2831,19 +2810,19 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B135" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C135" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D135" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E135" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F135" t="n">
         <v>0.0</v>
@@ -2851,19 +2830,19 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B136" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C136" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D136" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E136" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F136" t="n">
         <v>0.0</v>
@@ -2871,19 +2850,19 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B137" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C137" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D137" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E137" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F137" t="n">
         <v>0.0</v>
@@ -2891,19 +2870,19 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B138" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C138" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D138" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E138" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F138" t="n">
         <v>0.0</v>
@@ -2911,19 +2890,19 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B139" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C139" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D139" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E139" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F139" t="n">
         <v>0.0</v>
@@ -2931,19 +2910,19 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B140" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C140" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D140" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E140" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F140" t="n">
         <v>0.0</v>
@@ -2951,19 +2930,19 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B141" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C141" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D141" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E141" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F141" t="n">
         <v>0.0</v>
@@ -2971,19 +2950,19 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B142" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C142" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D142" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E142" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F142" t="n">
         <v>0.0</v>
@@ -2991,19 +2970,19 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B143" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C143" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D143" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E143" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F143" t="n">
         <v>0.0</v>
@@ -3011,19 +2990,19 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B144" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C144" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D144" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E144" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F144" t="n">
         <v>0.0</v>
@@ -3031,19 +3010,19 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B145" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C145" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D145" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E145" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F145" t="n">
         <v>0.0</v>
@@ -3051,19 +3030,19 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B146" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C146" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D146" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E146" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F146" t="n">
         <v>0.0</v>
@@ -3071,19 +3050,19 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B147" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C147" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D147" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E147" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F147" t="n">
         <v>0.0</v>
@@ -3091,19 +3070,19 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B148" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C148" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D148" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E148" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F148" t="n">
         <v>0.0</v>
@@ -3111,19 +3090,19 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B149" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C149" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D149" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E149" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F149" t="n">
         <v>0.0</v>
@@ -3131,19 +3110,19 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B150" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C150" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D150" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E150" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F150" t="n">
         <v>0.0</v>
@@ -3151,19 +3130,19 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B151" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C151" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D151" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E151" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F151" t="n">
         <v>0.0</v>
@@ -3171,19 +3150,19 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B152" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C152" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D152" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E152" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F152" t="n">
         <v>0.0</v>
@@ -3191,19 +3170,19 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B153" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C153" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D153" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E153" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F153" t="n">
         <v>0.0</v>
@@ -3211,19 +3190,19 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B154" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C154" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D154" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E154" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F154" t="n">
         <v>0.0</v>
@@ -3231,19 +3210,19 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B155" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C155" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D155" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E155" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F155" t="n">
         <v>0.0</v>
@@ -3251,19 +3230,19 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B156" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C156" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D156" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E156" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F156" t="n">
         <v>0.0</v>
@@ -3271,19 +3250,19 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B157" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C157" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D157" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E157" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F157" t="n">
         <v>0.0</v>
@@ -3291,19 +3270,19 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B158" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C158" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D158" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E158" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F158" t="n">
         <v>0.0</v>
@@ -3311,19 +3290,19 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B159" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C159" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D159" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E159" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F159" t="n">
         <v>0.0</v>
@@ -3331,19 +3310,19 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B160" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C160" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D160" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E160" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F160" t="n">
         <v>0.0</v>
@@ -3351,19 +3330,19 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B161" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C161" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D161" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E161" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F161" t="n">
         <v>0.0</v>
@@ -3371,19 +3350,19 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B162" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C162" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D162" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E162" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F162" t="n">
         <v>0.0</v>
@@ -3391,19 +3370,19 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B163" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C163" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D163" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E163" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F163" t="n">
         <v>0.0</v>
@@ -3411,19 +3390,19 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B164" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C164" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D164" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E164" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F164" t="n">
         <v>0.0</v>
@@ -3431,19 +3410,19 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B165" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C165" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D165" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E165" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F165" t="n">
         <v>0.0</v>
@@ -3451,19 +3430,19 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B166" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C166" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D166" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E166" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F166" t="n">
         <v>0.0</v>
@@ -3471,19 +3450,19 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B167" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C167" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D167" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E167" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F167" t="n">
         <v>0.0</v>
@@ -3491,19 +3470,19 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.8452140373936081</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B168" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C168" t="n">
-        <v>117.0625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D168" t="n">
-        <v>2.422916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E168" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F168" t="n">
         <v>0.0</v>
@@ -3511,19 +3490,19 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B169" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C169" t="n">
-        <v>117.1625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D169" t="n">
-        <v>2.079916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E169" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F169" t="n">
         <v>0.0</v>
@@ -3531,19 +3510,19 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B170" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C170" t="n">
-        <v>117.1625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D170" t="n">
-        <v>2.079916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E170" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F170" t="n">
         <v>0.0</v>
@@ -3551,19 +3530,19 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B171" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C171" t="n">
-        <v>117.1625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D171" t="n">
-        <v>2.079916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E171" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F171" t="n">
         <v>0.0</v>
@@ -3571,19 +3550,19 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B172" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C172" t="n">
-        <v>117.1625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D172" t="n">
-        <v>2.079916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E172" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F172" t="n">
         <v>0.0</v>
@@ -3591,19 +3570,19 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B173" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C173" t="n">
-        <v>117.1625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D173" t="n">
-        <v>2.079916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E173" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F173" t="n">
         <v>0.0</v>
@@ -3611,19 +3590,19 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B174" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C174" t="n">
-        <v>117.1625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D174" t="n">
-        <v>2.079916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E174" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F174" t="n">
         <v>0.0</v>
@@ -3631,19 +3610,19 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B175" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C175" t="n">
-        <v>117.1625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D175" t="n">
-        <v>2.079916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E175" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F175" t="n">
         <v>0.0</v>
@@ -3651,19 +3630,19 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B176" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C176" t="n">
-        <v>117.1625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D176" t="n">
-        <v>2.079916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E176" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F176" t="n">
         <v>0.0</v>
@@ -3671,19 +3650,19 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B177" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C177" t="n">
-        <v>117.1625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D177" t="n">
-        <v>2.079916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E177" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F177" t="n">
         <v>0.0</v>
@@ -3691,19 +3670,19 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B178" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C178" t="n">
-        <v>117.1625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D178" t="n">
-        <v>2.079916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E178" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F178" t="n">
         <v>0.0</v>
@@ -3711,19 +3690,19 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B179" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C179" t="n">
-        <v>117.1625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D179" t="n">
-        <v>2.079916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E179" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F179" t="n">
         <v>0.0</v>
@@ -3731,19 +3710,19 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B180" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C180" t="n">
-        <v>117.1625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D180" t="n">
-        <v>2.079916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E180" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F180" t="n">
         <v>0.0</v>
@@ -3751,19 +3730,19 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B181" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C181" t="n">
-        <v>117.1625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D181" t="n">
-        <v>2.079916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E181" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F181" t="n">
         <v>0.0</v>
@@ -3771,19 +3750,19 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B182" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C182" t="n">
-        <v>117.1625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D182" t="n">
-        <v>2.079916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E182" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F182" t="n">
         <v>0.0</v>
@@ -3791,19 +3770,19 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B183" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C183" t="n">
-        <v>117.1625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D183" t="n">
-        <v>2.079916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E183" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F183" t="n">
         <v>0.0</v>
@@ -3811,19 +3790,19 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B184" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C184" t="n">
-        <v>117.1625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D184" t="n">
-        <v>2.079916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E184" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F184" t="n">
         <v>0.0</v>
@@ -3831,19 +3810,19 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B185" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C185" t="n">
-        <v>117.1625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D185" t="n">
-        <v>2.079916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E185" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F185" t="n">
         <v>0.0</v>
@@ -3851,19 +3830,19 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7776536546334825</v>
       </c>
       <c r="B186" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C186" t="n">
-        <v>117.1625</v>
+        <v>5.05284090909091</v>
       </c>
       <c r="D186" t="n">
-        <v>2.079916666666667</v>
+        <v>51.179</v>
       </c>
       <c r="E186" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F186" t="n">
         <v>0.0</v>
@@ -3871,19 +3850,19 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B187" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C187" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D187" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E187" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F187" t="n">
         <v>0.0</v>
@@ -3891,19 +3870,19 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B188" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C188" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D188" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E188" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F188" t="n">
         <v>0.0</v>
@@ -3911,19 +3890,19 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B189" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C189" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D189" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E189" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F189" t="n">
         <v>0.0</v>
@@ -3931,19 +3910,19 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B190" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C190" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D190" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E190" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F190" t="n">
         <v>0.0</v>
@@ -3951,19 +3930,19 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B191" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C191" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D191" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E191" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F191" t="n">
         <v>0.0</v>
@@ -3971,19 +3950,19 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B192" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C192" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D192" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E192" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F192" t="n">
         <v>0.0</v>
@@ -3991,19 +3970,19 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B193" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C193" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D193" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E193" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F193" t="n">
         <v>0.0</v>
@@ -4011,19 +3990,19 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B194" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C194" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D194" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E194" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F194" t="n">
         <v>0.0</v>
@@ -4031,19 +4010,19 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B195" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C195" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D195" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E195" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F195" t="n">
         <v>0.0</v>
@@ -4051,19 +4030,19 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B196" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C196" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D196" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E196" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F196" t="n">
         <v>0.0</v>
@@ -4071,19 +4050,19 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B197" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C197" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D197" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E197" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F197" t="n">
         <v>0.0</v>
@@ -4091,19 +4070,19 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B198" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C198" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D198" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E198" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F198" t="n">
         <v>0.0</v>
@@ -4111,19 +4090,19 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B199" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C199" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D199" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E199" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F199" t="n">
         <v>0.0</v>
@@ -4131,19 +4110,19 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B200" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C200" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D200" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E200" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F200" t="n">
         <v>0.0</v>
@@ -4151,19 +4130,19 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B201" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C201" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D201" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E201" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F201" t="n">
         <v>0.0</v>
@@ -4171,19 +4150,19 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B202" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C202" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D202" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E202" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F202" t="n">
         <v>0.0</v>
@@ -4191,19 +4170,19 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B203" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C203" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D203" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E203" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F203" t="n">
         <v>0.0</v>
@@ -4211,19 +4190,19 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B204" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C204" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D204" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E204" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F204" t="n">
         <v>0.0</v>
@@ -4231,19 +4210,19 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B205" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C205" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D205" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E205" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F205" t="n">
         <v>0.0</v>
@@ -4251,19 +4230,19 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B206" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C206" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D206" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E206" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F206" t="n">
         <v>0.0</v>
@@ -4271,19 +4250,19 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B207" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C207" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D207" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E207" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F207" t="n">
         <v>0.0</v>
@@ -4291,19 +4270,19 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B208" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C208" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D208" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E208" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F208" t="n">
         <v>0.0</v>
@@ -4311,19 +4290,19 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B209" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C209" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D209" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E209" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F209" t="n">
         <v>0.0</v>
@@ -4331,19 +4310,19 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B210" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C210" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D210" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E210" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F210" t="n">
         <v>0.0</v>
@@ -4351,19 +4330,19 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B211" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C211" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D211" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E211" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F211" t="n">
         <v>0.0</v>
@@ -4371,19 +4350,19 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B212" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C212" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D212" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E212" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F212" t="n">
         <v>0.0</v>
@@ -4391,19 +4370,19 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B213" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C213" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D213" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E213" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F213" t="n">
         <v>0.0</v>
@@ -4411,19 +4390,19 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B214" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C214" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D214" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E214" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F214" t="n">
         <v>0.0</v>
@@ -4431,19 +4410,19 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B215" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C215" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D215" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E215" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F215" t="n">
         <v>0.0</v>
@@ -4451,19 +4430,19 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B216" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C216" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D216" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E216" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F216" t="n">
         <v>0.0</v>
@@ -4471,19 +4450,19 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B217" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C217" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D217" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E217" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F217" t="n">
         <v>0.0</v>
@@ -4491,19 +4470,19 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B218" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C218" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D218" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E218" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F218" t="n">
         <v>0.0</v>
@@ -4511,19 +4490,19 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B219" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C219" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D219" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E219" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F219" t="n">
         <v>0.0</v>
@@ -4531,19 +4510,19 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B220" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C220" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D220" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E220" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F220" t="n">
         <v>0.0</v>
@@ -4551,19 +4530,19 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B221" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C221" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D221" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E221" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F221" t="n">
         <v>0.0</v>
@@ -4571,19 +4550,19 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B222" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C222" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D222" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E222" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F222" t="n">
         <v>0.0</v>
@@ -4591,19 +4570,19 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B223" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C223" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D223" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E223" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F223" t="n">
         <v>0.0</v>
@@ -4611,19 +4590,19 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B224" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C224" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D224" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E224" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F224" t="n">
         <v>0.0</v>
@@ -4631,19 +4610,19 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B225" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C225" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D225" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E225" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F225" t="n">
         <v>0.0</v>
@@ -4651,19 +4630,19 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B226" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C226" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D226" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E226" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F226" t="n">
         <v>0.0</v>
@@ -4671,19 +4650,19 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B227" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C227" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D227" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E227" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F227" t="n">
         <v>0.0</v>
@@ -4691,19 +4670,19 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B228" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C228" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D228" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E228" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F228" t="n">
         <v>0.0</v>
@@ -4711,19 +4690,19 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B229" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C229" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D229" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E229" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F229" t="n">
         <v>0.0</v>
@@ -4731,19 +4710,19 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B230" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C230" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D230" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E230" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F230" t="n">
         <v>0.0</v>
@@ -4751,19 +4730,19 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B231" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C231" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D231" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E231" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F231" t="n">
         <v>0.0</v>
@@ -4771,19 +4750,19 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B232" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C232" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D232" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E232" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F232" t="n">
         <v>0.0</v>
@@ -4791,19 +4770,19 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B233" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C233" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D233" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E233" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F233" t="n">
         <v>0.0</v>
@@ -4811,19 +4790,19 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B234" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C234" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D234" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E234" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F234" t="n">
         <v>0.0</v>
@@ -4831,19 +4810,19 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B235" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C235" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D235" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E235" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F235" t="n">
         <v>0.0</v>
@@ -4851,19 +4830,19 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B236" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C236" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D236" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E236" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F236" t="n">
         <v>0.0</v>
@@ -4871,19 +4850,19 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B237" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C237" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D237" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E237" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F237" t="n">
         <v>0.0</v>
@@ -4891,19 +4870,19 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B238" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C238" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D238" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E238" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F238" t="n">
         <v>0.0</v>
@@ -4911,19 +4890,19 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B239" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C239" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D239" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E239" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F239" t="n">
         <v>0.0</v>
@@ -4931,19 +4910,19 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B240" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C240" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D240" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E240" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F240" t="n">
         <v>0.0</v>
@@ -4951,19 +4930,19 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B241" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C241" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D241" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E241" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F241" t="n">
         <v>0.0</v>
@@ -4971,19 +4950,19 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B242" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C242" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D242" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E242" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F242" t="n">
         <v>0.0</v>
@@ -4991,19 +4970,19 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B243" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C243" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D243" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E243" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F243" t="n">
         <v>0.0</v>
@@ -5011,19 +4990,19 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B244" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C244" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D244" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E244" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F244" t="n">
         <v>0.0</v>
@@ -5031,19 +5010,19 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B245" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C245" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D245" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E245" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F245" t="n">
         <v>0.0</v>
@@ -5051,19 +5030,19 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B246" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C246" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D246" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E246" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F246" t="n">
         <v>0.0</v>
@@ -5071,19 +5050,19 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B247" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C247" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D247" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E247" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F247" t="n">
         <v>0.0</v>
@@ -5091,19 +5070,19 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B248" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C248" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D248" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E248" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F248" t="n">
         <v>0.0</v>
@@ -5111,19 +5090,19 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B249" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C249" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D249" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E249" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F249" t="n">
         <v>0.0</v>
@@ -5131,19 +5110,19 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B250" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C250" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D250" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E250" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F250" t="n">
         <v>0.0</v>
@@ -5151,19 +5130,19 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B251" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C251" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D251" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E251" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F251" t="n">
         <v>0.0</v>
@@ -5171,19 +5150,19 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B252" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C252" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D252" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E252" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F252" t="n">
         <v>0.0</v>
@@ -5191,19 +5170,19 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B253" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C253" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D253" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E253" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F253" t="n">
         <v>0.0</v>
@@ -5211,19 +5190,19 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B254" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C254" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D254" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E254" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F254" t="n">
         <v>0.0</v>
@@ -5231,19 +5210,19 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B255" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C255" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D255" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E255" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F255" t="n">
         <v>0.0</v>
@@ -5251,19 +5230,19 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B256" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C256" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D256" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E256" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F256" t="n">
         <v>0.0</v>
@@ -5271,19 +5250,19 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B257" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C257" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D257" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E257" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F257" t="n">
         <v>0.0</v>
@@ -5291,19 +5270,19 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B258" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C258" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D258" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E258" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F258" t="n">
         <v>0.0</v>
@@ -5311,19 +5290,19 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B259" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C259" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D259" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E259" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F259" t="n">
         <v>0.0</v>
@@ -5331,19 +5310,19 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B260" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C260" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D260" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E260" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F260" t="n">
         <v>0.0</v>
@@ -5351,19 +5330,19 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B261" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C261" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D261" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E261" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F261" t="n">
         <v>0.0</v>
@@ -5371,19 +5350,19 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B262" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C262" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D262" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E262" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F262" t="n">
         <v>0.0</v>
@@ -5391,19 +5370,19 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B263" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C263" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D263" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E263" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F263" t="n">
         <v>0.0</v>
@@ -5411,19 +5390,19 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B264" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C264" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D264" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E264" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F264" t="n">
         <v>0.0</v>
@@ -5431,19 +5410,19 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B265" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C265" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D265" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E265" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F265" t="n">
         <v>0.0</v>
@@ -5451,19 +5430,19 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B266" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C266" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D266" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E266" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F266" t="n">
         <v>0.0</v>
@@ -5471,19 +5450,19 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B267" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C267" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D267" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E267" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F267" t="n">
         <v>0.0</v>
@@ -5491,19 +5470,19 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B268" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C268" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D268" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E268" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F268" t="n">
         <v>0.0</v>
@@ -5511,19 +5490,19 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B269" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C269" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D269" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E269" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F269" t="n">
         <v>0.0</v>
@@ -5531,19 +5510,19 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B270" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C270" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D270" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E270" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F270" t="n">
         <v>0.0</v>
@@ -5551,19 +5530,19 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B271" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C271" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D271" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E271" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F271" t="n">
         <v>0.0</v>
@@ -5571,19 +5550,19 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B272" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C272" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D272" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E272" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F272" t="n">
         <v>0.0</v>
@@ -5591,19 +5570,19 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B273" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C273" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D273" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E273" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F273" t="n">
         <v>0.0</v>
@@ -5611,19 +5590,19 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B274" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C274" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D274" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E274" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F274" t="n">
         <v>0.0</v>
@@ -5631,19 +5610,19 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B275" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C275" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D275" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E275" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F275" t="n">
         <v>0.0</v>
@@ -5651,19 +5630,19 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B276" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C276" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D276" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E276" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F276" t="n">
         <v>0.0</v>
@@ -5671,19 +5650,19 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B277" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C277" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D277" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E277" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F277" t="n">
         <v>0.0</v>
@@ -5691,19 +5670,19 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B278" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C278" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D278" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E278" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F278" t="n">
         <v>0.0</v>
@@ -5711,19 +5690,19 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B279" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C279" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D279" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E279" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F279" t="n">
         <v>0.0</v>
@@ -5731,19 +5710,19 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B280" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C280" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D280" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E280" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F280" t="n">
         <v>0.0</v>
@@ -5751,19 +5730,19 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B281" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C281" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D281" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E281" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F281" t="n">
         <v>0.0</v>
@@ -5771,19 +5750,19 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B282" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C282" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D282" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E282" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F282" t="n">
         <v>0.0</v>
@@ -5791,19 +5770,19 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B283" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C283" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D283" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E283" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F283" t="n">
         <v>0.0</v>
@@ -5811,19 +5790,19 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B284" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C284" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D284" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E284" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F284" t="n">
         <v>0.0</v>
@@ -5831,19 +5810,19 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B285" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C285" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D285" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E285" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F285" t="n">
         <v>0.0</v>
@@ -5851,19 +5830,19 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B286" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C286" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D286" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E286" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F286" t="n">
         <v>0.0</v>
@@ -5871,19 +5850,19 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B287" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C287" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D287" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E287" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F287" t="n">
         <v>0.0</v>
@@ -5891,19 +5870,19 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B288" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C288" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D288" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E288" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F288" t="n">
         <v>0.0</v>
@@ -5911,19 +5890,19 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B289" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C289" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D289" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E289" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F289" t="n">
         <v>0.0</v>
@@ -5931,19 +5910,19 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B290" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C290" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D290" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E290" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F290" t="n">
         <v>0.0</v>
@@ -5951,19 +5930,19 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B291" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C291" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D291" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E291" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F291" t="n">
         <v>0.0</v>
@@ -5971,19 +5950,19 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B292" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C292" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D292" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E292" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F292" t="n">
         <v>0.0</v>
@@ -5991,19 +5970,19 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B293" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C293" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D293" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E293" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F293" t="n">
         <v>0.0</v>
@@ -6011,19 +5990,19 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B294" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C294" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D294" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E294" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F294" t="n">
         <v>0.0</v>
@@ -6031,19 +6010,19 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B295" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C295" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D295" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E295" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F295" t="n">
         <v>0.0</v>
@@ -6051,19 +6030,19 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B296" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C296" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D296" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E296" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F296" t="n">
         <v>0.0</v>
@@ -6071,19 +6050,19 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B297" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C297" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D297" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E297" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F297" t="n">
         <v>0.0</v>
@@ -6091,19 +6070,19 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B298" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C298" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D298" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E298" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F298" t="n">
         <v>0.0</v>
@@ -6111,19 +6090,19 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B299" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C299" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D299" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E299" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F299" t="n">
         <v>0.0</v>
@@ -6131,19 +6110,19 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B300" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C300" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D300" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E300" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F300" t="n">
         <v>0.0</v>
@@ -6151,19 +6130,19 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0.8449784312013369</v>
+        <v>0.7756389153194567</v>
       </c>
       <c r="B301" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C301" t="n">
-        <v>117.1625</v>
+        <v>4.870652173913043</v>
       </c>
       <c r="D301" t="n">
-        <v>2.079916666666667</v>
+        <v>48.568000000000005</v>
       </c>
       <c r="E301" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F301" t="n">
         <v>0.0</v>
